--- a/机构保费达成情况表.xlsx
+++ b/机构保费达成情况表.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="三级机构周报" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <t>2019年三级机构签单保费达成情况</t>
   </si>
   <si>
-    <t>数据统计范围：2019-01-01至2019-11-17</t>
+    <t>数据统计范围：2019-01-01至2019-12-29</t>
   </si>
   <si>
     <t>说明：表格中任务达成情况“正数”表示已超额完成全年任务，“负数”表示全年任务的缺口</t>
@@ -83,7 +83,7 @@
     <t>保山</t>
   </si>
   <si>
-    <t>巧家</t>
+    <t>昭通</t>
   </si>
   <si>
     <t>怒江</t>
@@ -104,39 +104,39 @@
     <t>春怡雅苑</t>
   </si>
   <si>
+    <t>师宗</t>
+  </si>
+  <si>
+    <t>宣威</t>
+  </si>
+  <si>
+    <t>丘北</t>
+  </si>
+  <si>
+    <t>宜良</t>
+  </si>
+  <si>
     <t>春之城</t>
   </si>
   <si>
-    <t>宣威</t>
-  </si>
-  <si>
-    <t>丘北</t>
-  </si>
-  <si>
-    <t>师宗</t>
-  </si>
-  <si>
-    <t>宜良</t>
-  </si>
-  <si>
     <t>东川</t>
   </si>
   <si>
     <t>陆良</t>
   </si>
   <si>
+    <t>砚山</t>
+  </si>
+  <si>
+    <t>沾益</t>
+  </si>
+  <si>
     <t>勐海</t>
   </si>
   <si>
-    <t>砚山</t>
-  </si>
-  <si>
     <t>勐腊</t>
   </si>
   <si>
-    <t>沾益</t>
-  </si>
-  <si>
     <t>香榭丽园</t>
   </si>
   <si>
@@ -158,36 +158,36 @@
     <t>弥渡</t>
   </si>
   <si>
+    <t>富宁</t>
+  </si>
+  <si>
     <t>腾冲</t>
   </si>
   <si>
-    <t>富宁</t>
-  </si>
-  <si>
     <t>罗平</t>
   </si>
   <si>
     <t>漾濞</t>
   </si>
   <si>
+    <t>安宁</t>
+  </si>
+  <si>
     <t>会泽</t>
   </si>
   <si>
-    <t>安宁</t>
-  </si>
-  <si>
     <t>广南</t>
   </si>
   <si>
     <t>麻栗坡</t>
   </si>
   <si>
+    <t>兰坪</t>
+  </si>
+  <si>
     <t>洱源</t>
   </si>
   <si>
-    <t>兰坪</t>
-  </si>
-  <si>
     <t>曲靖中支本部</t>
   </si>
   <si>
@@ -200,10 +200,10 @@
     <t>版纳中支本部</t>
   </si>
   <si>
+    <t>大理中支本部</t>
+  </si>
+  <si>
     <t>文山营业一部</t>
-  </si>
-  <si>
-    <t>大理中支本部</t>
   </si>
   <si>
     <t>怒江中支本部</t>
@@ -220,10 +220,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -267,16 +267,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,18 +288,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,13 +332,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -358,6 +351,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,6 +438,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -492,6 +516,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -504,19 +564,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,25 +594,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,48 +619,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,88 +747,88 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -837,62 +837,62 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -957,7 +957,6 @@
     <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1284,13 +1283,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet2">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:E40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1387,19 +1386,19 @@
         <v>3550</v>
       </c>
       <c r="E5" s="6">
-        <v>3968.36614500008</v>
+        <v>4604.5200060001</v>
       </c>
       <c r="F5" s="7">
-        <v>0.361215246989701</v>
+        <v>0.361978303624615</v>
       </c>
       <c r="G5" s="7">
-        <v>1.27107511116233</v>
+        <v>1.30419415837507</v>
       </c>
       <c r="H5" s="8">
-        <v>1.11784961830988</v>
+        <v>1.29704788901411</v>
       </c>
       <c r="I5" s="6">
-        <v>418.366145000081</v>
+        <v>1054.5200060001</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:9">
@@ -1412,19 +1411,19 @@
         <v>620</v>
       </c>
       <c r="E6" s="6">
-        <v>972.954182999991</v>
+        <v>1064.44680599999</v>
       </c>
       <c r="F6" s="7">
-        <v>4.42920402240485</v>
+        <v>3.34903534351853</v>
       </c>
       <c r="G6" s="7">
-        <v>1.78438486983719</v>
+        <v>1.72630891402291</v>
       </c>
       <c r="H6" s="8">
-        <v>1.56928094032257</v>
+        <v>1.71684968709676</v>
       </c>
       <c r="I6" s="6">
-        <v>352.954182999991</v>
+        <v>444.446805999991</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:9">
@@ -1437,19 +1436,19 @@
         <v>660</v>
       </c>
       <c r="E7" s="6">
-        <v>738.194716</v>
+        <v>803.757601</v>
       </c>
       <c r="F7" s="7">
-        <v>2.42799454962611</v>
+        <v>1.43035459846031</v>
       </c>
       <c r="G7" s="7">
-        <v>1.27178830992165</v>
+        <v>1.22452426899157</v>
       </c>
       <c r="H7" s="8">
-        <v>1.11847684242424</v>
+        <v>1.2178145469697</v>
       </c>
       <c r="I7" s="6">
-        <v>78.1947160000001</v>
+        <v>143.757601</v>
       </c>
     </row>
     <row r="8" ht="18" spans="1:9">
@@ -1462,19 +1461,19 @@
         <v>4830</v>
       </c>
       <c r="E8" s="10">
-        <v>5679.51504400019</v>
+        <v>6472.72441300023</v>
       </c>
       <c r="F8" s="11">
-        <v>0.715937211288027</v>
+        <v>0.636084124755977</v>
       </c>
       <c r="G8" s="11">
-        <v>1.33706326055357</v>
+        <v>1.34749209243484</v>
       </c>
       <c r="H8" s="12">
-        <v>1.1758830318841</v>
+        <v>1.34010857412013</v>
       </c>
       <c r="I8" s="10">
-        <v>849.515044000187</v>
+        <v>1642.72441300023</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:9">
@@ -1491,19 +1490,19 @@
         <v>4450</v>
       </c>
       <c r="E9" s="15">
-        <v>4626.05262300014</v>
+        <v>5516.63073300017</v>
       </c>
       <c r="F9" s="16">
-        <v>0.199143566009963</v>
+        <v>0.240803201531361</v>
       </c>
       <c r="G9" s="16">
-        <v>1.18205692001474</v>
+        <v>1.24652256015418</v>
       </c>
       <c r="H9" s="17">
-        <v>1.03956238719104</v>
+        <v>1.2396922995506</v>
       </c>
       <c r="I9" s="15">
-        <v>176.052623000141</v>
+        <v>1066.63073300017</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:9">
@@ -1516,19 +1515,19 @@
         <v>220</v>
       </c>
       <c r="E10" s="15">
-        <v>359.80144</v>
+        <v>371.715654999999</v>
       </c>
       <c r="F10" s="16">
-        <v>0.695042265719164</v>
+        <v>0.668941553263787</v>
       </c>
       <c r="G10" s="16">
-        <v>1.85963644293401</v>
+        <v>1.69892579608064</v>
       </c>
       <c r="H10" s="17">
-        <v>1.63546109090909</v>
+        <v>1.68961661363636</v>
       </c>
       <c r="I10" s="15">
-        <v>139.80144</v>
+        <v>151.715654999999</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:9">
@@ -1541,19 +1540,19 @@
         <v>160</v>
       </c>
       <c r="E11" s="15">
-        <v>162.638266</v>
+        <v>173.583892</v>
       </c>
       <c r="F11" s="16">
-        <v>-0.0276263773793202</v>
+        <v>-0.0325346055777218</v>
       </c>
       <c r="G11" s="16">
-        <v>1.15582101031931</v>
+        <v>1.09087673174931</v>
       </c>
       <c r="H11" s="17">
-        <v>1.0164891625</v>
+        <v>1.084899325</v>
       </c>
       <c r="I11" s="15">
-        <v>2.63826600000002</v>
+        <v>13.5838920000001</v>
       </c>
     </row>
     <row r="12" ht="18" spans="1:9">
@@ -1566,19 +1565,19 @@
         <v>4830</v>
       </c>
       <c r="E12" s="19">
-        <v>5148.49232900023</v>
+        <v>6061.93028000028</v>
       </c>
       <c r="F12" s="20">
-        <v>0.215034159940437</v>
+        <v>0.250356234703325</v>
       </c>
       <c r="G12" s="20">
-        <v>1.21205065696941</v>
+        <v>1.26197294925546</v>
       </c>
       <c r="H12" s="21">
-        <v>1.0659404407868</v>
+        <v>1.25505802898556</v>
       </c>
       <c r="I12" s="19">
-        <v>318.492329000225</v>
+        <v>1231.93028000028</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:9">
@@ -1595,19 +1594,19 @@
         <v>3200</v>
       </c>
       <c r="E13" s="6">
-        <v>2988.82301400008</v>
+        <v>3600.9640030001</v>
       </c>
       <c r="F13" s="7">
-        <v>0.0260681604943989</v>
+        <v>0.0976536623145918</v>
       </c>
       <c r="G13" s="7">
-        <v>1.06203309979559</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0.934007191875026</v>
+        <v>1.13150125782975</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1.12530125093753</v>
       </c>
       <c r="I13" s="6">
-        <v>-211.176985999916</v>
+        <v>400.964003000096</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:9">
@@ -1620,19 +1619,19 @@
         <v>160</v>
       </c>
       <c r="E14" s="6">
-        <v>174.778028000001</v>
+        <v>189.180492000001</v>
       </c>
       <c r="F14" s="7">
-        <v>0.32516249251063</v>
+        <v>0.361431886400613</v>
       </c>
       <c r="G14" s="7">
-        <v>1.24209463045172</v>
+        <v>1.18889255475208</v>
       </c>
       <c r="H14" s="8">
-        <v>1.09236267500001</v>
+        <v>1.18237807500001</v>
       </c>
       <c r="I14" s="6">
-        <v>14.7780280000009</v>
+        <v>29.1804920000015</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:9">
@@ -1645,19 +1644,19 @@
         <v>60</v>
       </c>
       <c r="E15" s="6">
-        <v>68.842005</v>
+        <v>76.549354</v>
       </c>
       <c r="F15" s="7">
-        <v>0.187910081484048</v>
+        <v>0.208751103399321</v>
       </c>
       <c r="G15" s="7">
-        <v>1.30463820482866</v>
+        <v>1.28285189210285</v>
       </c>
       <c r="H15" s="8">
-        <v>1.14736675</v>
+        <v>1.27582256666667</v>
       </c>
       <c r="I15" s="6">
-        <v>8.84200500000001</v>
+        <v>16.549354</v>
       </c>
     </row>
     <row r="16" ht="18" spans="1:9">
@@ -1670,19 +1669,19 @@
         <v>3420</v>
       </c>
       <c r="E16" s="10">
-        <v>3232.44304700008</v>
+        <v>3866.69384900012</v>
       </c>
       <c r="F16" s="11">
-        <v>0.0418049872877926</v>
+        <v>0.110197723123815</v>
       </c>
       <c r="G16" s="11">
-        <v>1.07471326096722</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0.945158785672538</v>
+        <v>1.13684150507068</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1.13061223654974</v>
       </c>
       <c r="I16" s="10">
-        <v>-187.556952999921</v>
+        <v>446.693849000117</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="1:9">
@@ -1699,19 +1698,19 @@
         <v>2450</v>
       </c>
       <c r="E17" s="15">
-        <v>2599.11133300006</v>
+        <v>3009.49967500007</v>
       </c>
       <c r="F17" s="16">
-        <v>0.281300070824033</v>
+        <v>0.291584187720241</v>
       </c>
       <c r="G17" s="16">
-        <v>1.20627584276816</v>
+        <v>1.23513507772533</v>
       </c>
       <c r="H17" s="17">
-        <v>1.06086176857145</v>
+        <v>1.22836721428574</v>
       </c>
       <c r="I17" s="15">
-        <v>149.111333000057</v>
+        <v>559.499675000066</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:9">
@@ -1724,19 +1723,19 @@
         <v>100</v>
       </c>
       <c r="E18" s="15">
-        <v>105.642664999998</v>
+        <v>101.650595999998</v>
       </c>
       <c r="F18" s="16">
-        <v>1.13970219758721</v>
+        <v>0.867619702605366</v>
       </c>
       <c r="G18" s="16">
-        <v>1.20123279517132</v>
+        <v>1.02210654380163</v>
       </c>
       <c r="H18" s="17">
-        <v>1.05642664999998</v>
+        <v>1.01650595999998</v>
       </c>
       <c r="I18" s="15">
-        <v>5.64266499999839</v>
+        <v>1.65059599999805</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="1:9">
@@ -1749,19 +1748,19 @@
         <v>60</v>
       </c>
       <c r="E19" s="15">
-        <v>21.730904</v>
+        <v>21.878545</v>
       </c>
       <c r="F19" s="16">
-        <v>0.561128497369647</v>
+        <v>0.531216283706494</v>
       </c>
       <c r="G19" s="16">
-        <v>0.411826581516095</v>
+        <v>0.366651465794307</v>
       </c>
       <c r="H19" s="16">
-        <v>0.362181733333333</v>
+        <v>0.364642416666666</v>
       </c>
       <c r="I19" s="15">
-        <v>-38.269096</v>
+        <v>-38.121455</v>
       </c>
     </row>
     <row r="20" ht="18" spans="1:9">
@@ -1774,19 +1773,19 @@
         <v>2610</v>
       </c>
       <c r="E20" s="19">
-        <v>2726.48490200003</v>
+        <v>3133.02881600003</v>
       </c>
       <c r="F20" s="20">
-        <v>0.303423133421943</v>
+        <v>0.306081577527729</v>
       </c>
       <c r="G20" s="20">
-        <v>1.18781942114562</v>
+        <v>1.20700792442715</v>
       </c>
       <c r="H20" s="21">
-        <v>1.04463023065135</v>
+        <v>1.20039418237549</v>
       </c>
       <c r="I20" s="19">
-        <v>116.48490200003</v>
+        <v>523.028816000033</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:9">
@@ -1803,19 +1802,19 @@
         <v>1300</v>
       </c>
       <c r="E21" s="6">
-        <v>1500.57945300002</v>
+        <v>1702.48026700003</v>
       </c>
       <c r="F21" s="7">
-        <v>0.31599106022035</v>
+        <v>0.339707604847831</v>
       </c>
       <c r="G21" s="7">
-        <v>1.31251258170383</v>
+        <v>1.31681563351348</v>
       </c>
       <c r="H21" s="8">
-        <v>1.15429188692309</v>
+        <v>1.30960020538464</v>
       </c>
       <c r="I21" s="6">
-        <v>200.579453000017</v>
+        <v>402.480267000026</v>
       </c>
     </row>
     <row r="22" ht="17.25" spans="1:9">
@@ -1828,19 +1827,19 @@
         <v>50</v>
       </c>
       <c r="E22" s="6">
-        <v>112.871622</v>
+        <v>128.424943000001</v>
       </c>
       <c r="F22" s="7">
-        <v>2.51920483264346</v>
+        <v>2.80986731895703</v>
       </c>
       <c r="G22" s="7">
-        <v>2.5668624317757</v>
+        <v>2.58265036887054</v>
       </c>
       <c r="H22" s="8">
-        <v>2.25743244</v>
+        <v>2.56849886000001</v>
       </c>
       <c r="I22" s="6">
-        <v>62.8716219999999</v>
+        <v>78.4249430000006</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="1:9">
@@ -1853,19 +1852,19 @@
         <v>50</v>
       </c>
       <c r="E23" s="6">
-        <v>33.168474</v>
+        <v>39.330987</v>
       </c>
       <c r="F23" s="7">
-        <v>0.648652220720401</v>
+        <v>0.876980855896109</v>
       </c>
       <c r="G23" s="7">
-        <v>0.754298629906542</v>
+        <v>0.790953733057852</v>
       </c>
       <c r="H23" s="7">
-        <v>0.66336948</v>
+        <v>0.78661974</v>
       </c>
       <c r="I23" s="6">
-        <v>-16.831526</v>
+        <v>-10.669013</v>
       </c>
     </row>
     <row r="24" ht="18" spans="1:9">
@@ -1878,19 +1877,19 @@
         <v>1400</v>
       </c>
       <c r="E24" s="10">
-        <v>1646.61954900001</v>
+        <v>1870.23619700002</v>
       </c>
       <c r="F24" s="11">
-        <v>0.380862512663189</v>
+        <v>0.411022090072412</v>
       </c>
       <c r="G24" s="11">
-        <v>1.33737457807077</v>
+        <v>1.34324323475995</v>
       </c>
       <c r="H24" s="12">
-        <v>1.17615682071429</v>
+        <v>1.33588299785716</v>
       </c>
       <c r="I24" s="10">
-        <v>246.619549000013</v>
+        <v>470.236197000025</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="1:9">
@@ -1907,19 +1906,19 @@
         <v>1050</v>
       </c>
       <c r="E25" s="15">
-        <v>1171.08654500001</v>
+        <v>1325.66223300002</v>
       </c>
       <c r="F25" s="16">
-        <v>0.505427112955113</v>
+        <v>0.461185994945492</v>
       </c>
       <c r="G25" s="16">
-        <v>1.26819934408843</v>
+        <v>1.26949157823693</v>
       </c>
       <c r="H25" s="17">
-        <v>1.11532051904763</v>
+        <v>1.26253546000002</v>
       </c>
       <c r="I25" s="15">
-        <v>121.086545000014</v>
+        <v>275.662233000021</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="1:9">
@@ -1932,19 +1931,19 @@
         <v>240</v>
       </c>
       <c r="E26" s="15">
-        <v>264.555016999999</v>
+        <v>295.298343999999</v>
       </c>
       <c r="F26" s="16">
-        <v>0.343308495672298</v>
+        <v>0.480110605230893</v>
       </c>
       <c r="G26" s="16">
-        <v>1.2534083749351</v>
+        <v>1.23718888383838</v>
       </c>
       <c r="H26" s="17">
-        <v>1.10231257083333</v>
+        <v>1.23040976666666</v>
       </c>
       <c r="I26" s="15">
-        <v>24.5550169999995</v>
+        <v>55.2983439999988</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:9">
@@ -1957,19 +1956,19 @@
         <v>80</v>
       </c>
       <c r="E27" s="15">
-        <v>107.24755</v>
+        <v>113.366264</v>
       </c>
       <c r="F27" s="16">
-        <v>1.08452528142803</v>
+        <v>0.740024978477283</v>
       </c>
       <c r="G27" s="16">
-        <v>1.52435185942367</v>
+        <v>1.42488589393939</v>
       </c>
       <c r="H27" s="17">
-        <v>1.340594375</v>
+        <v>1.4170783</v>
       </c>
       <c r="I27" s="15">
-        <v>27.2475499999999</v>
+        <v>33.3662639999999</v>
       </c>
     </row>
     <row r="28" ht="18" spans="1:9">
@@ -1982,19 +1981,19 @@
         <v>1370</v>
       </c>
       <c r="E28" s="19">
-        <v>1542.88911200002</v>
+        <v>1734.32684100003</v>
       </c>
       <c r="F28" s="20">
-        <v>0.503347941686678</v>
+        <v>0.479909733746871</v>
       </c>
       <c r="G28" s="20">
-        <v>1.2805660365191</v>
+        <v>1.27290683268989</v>
       </c>
       <c r="H28" s="21">
-        <v>1.1261964321168</v>
+        <v>1.26593200072995</v>
       </c>
       <c r="I28" s="19">
-        <v>172.889112000018</v>
+        <v>364.32684100003</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:9">
@@ -2011,19 +2010,19 @@
         <v>450</v>
       </c>
       <c r="E29" s="6">
-        <v>399.086924999998</v>
+        <v>506.574677999997</v>
       </c>
       <c r="F29" s="7">
-        <v>0.254432415454773</v>
+        <v>0.282871091512599</v>
       </c>
       <c r="G29" s="7">
-        <v>1.00842317497403</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0.886859833333329</v>
+        <v>1.13192382901744</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1.12572150666666</v>
       </c>
       <c r="I29" s="6">
-        <v>-50.9130750000021</v>
+        <v>56.5746779999974</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="1:9">
@@ -2036,19 +2035,19 @@
         <v>100</v>
       </c>
       <c r="E30" s="6">
-        <v>134.23562</v>
+        <v>130.986835</v>
       </c>
       <c r="F30" s="7">
-        <v>0.0621774027392699</v>
+        <v>-0.0796256718564687</v>
       </c>
       <c r="G30" s="7">
-        <v>1.52635518068536</v>
+        <v>1.31708525550964</v>
       </c>
       <c r="H30" s="8">
-        <v>1.3423562</v>
+        <v>1.30986835</v>
       </c>
       <c r="I30" s="6">
-        <v>34.2356200000001</v>
+        <v>30.9868350000001</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="1:9">
@@ -2064,10 +2063,10 @@
         <v>239.566333</v>
       </c>
       <c r="F31" s="7">
-        <v>0.337462786609328</v>
+        <v>0.327267435689482</v>
       </c>
       <c r="G31" s="7">
-        <v>0.908013619366563</v>
+        <v>0.802954192332415</v>
       </c>
       <c r="H31" s="7">
         <v>0.798554443333333</v>
@@ -2086,19 +2085,19 @@
         <v>850</v>
       </c>
       <c r="E32" s="10">
-        <v>772.888877999997</v>
+        <v>877.127845999998</v>
       </c>
       <c r="F32" s="11">
-        <v>0.239320534767724</v>
+        <v>0.222152945864631</v>
       </c>
       <c r="G32" s="11">
-        <v>1.03391768543155</v>
-      </c>
-      <c r="H32" s="11">
-        <v>0.909281032941173</v>
+        <v>1.0376005956571</v>
+      </c>
+      <c r="H32" s="12">
+        <v>1.03191511294117</v>
       </c>
       <c r="I32" s="10">
-        <v>-77.1111220000028</v>
+        <v>27.1278459999978</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="1:9">
@@ -2115,19 +2114,19 @@
         <v>550</v>
       </c>
       <c r="E33" s="15">
-        <v>473.743354999999</v>
+        <v>573.708688999999</v>
       </c>
       <c r="F33" s="16">
-        <v>-0.0180370948027918</v>
+        <v>0.0788829443387045</v>
       </c>
       <c r="G33" s="16">
-        <v>0.979418434296232</v>
-      </c>
-      <c r="H33" s="16">
-        <v>0.861351554545453</v>
+        <v>1.04885385166541</v>
+      </c>
+      <c r="H33" s="17">
+        <v>1.04310670727273</v>
       </c>
       <c r="I33" s="15">
-        <v>-76.2566450000007</v>
+        <v>23.7086889999988</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="1:9">
@@ -2140,19 +2139,19 @@
         <v>110</v>
       </c>
       <c r="E34" s="15">
-        <v>113.421909</v>
+        <v>114.844613</v>
       </c>
       <c r="F34" s="16">
-        <v>-0.23739979518256</v>
+        <v>-0.235494512100898</v>
       </c>
       <c r="G34" s="16">
-        <v>1.1724439757859</v>
+        <v>1.04979423353369</v>
       </c>
       <c r="H34" s="17">
-        <v>1.03110826363636</v>
+        <v>1.04404193636364</v>
       </c>
       <c r="I34" s="15">
-        <v>3.42190900000013</v>
+        <v>4.84461300000027</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="1:9">
@@ -2165,19 +2164,19 @@
         <v>50</v>
       </c>
       <c r="E35" s="15">
-        <v>24.065318</v>
+        <v>25.729926</v>
       </c>
       <c r="F35" s="16">
-        <v>0.00978905485371073</v>
+        <v>-0.00211170524784843</v>
       </c>
       <c r="G35" s="16">
-        <v>0.547279817445483</v>
+        <v>0.517433773553719</v>
       </c>
       <c r="H35" s="16">
-        <v>0.48130636</v>
+        <v>0.51459852</v>
       </c>
       <c r="I35" s="15">
-        <v>-25.934682</v>
+        <v>-24.270074</v>
       </c>
     </row>
     <row r="36" ht="18" spans="1:9">
@@ -2190,19 +2189,19 @@
         <v>710</v>
       </c>
       <c r="E36" s="19">
-        <v>611.230581999999</v>
+        <v>714.283227999998</v>
       </c>
       <c r="F36" s="20">
-        <v>-0.0668346371880572</v>
+        <v>0.00920686439434082</v>
       </c>
       <c r="G36" s="20">
-        <v>0.978891502917817</v>
-      </c>
-      <c r="H36" s="20">
-        <v>0.86088814366197</v>
+        <v>1.01157559546812</v>
+      </c>
+      <c r="H36" s="21">
+        <v>1.00603271549296</v>
       </c>
       <c r="I36" s="19">
-        <v>-98.7694180000011</v>
+        <v>4.2832279999983</v>
       </c>
     </row>
     <row r="37" ht="17.25" spans="1:9">
@@ -2219,19 +2218,19 @@
         <v>17000</v>
       </c>
       <c r="E37" s="6">
-        <v>17726.8493929995</v>
+        <v>20840.0402839995</v>
       </c>
       <c r="F37" s="7">
-        <v>0.228194811678661</v>
+        <v>0.259815772307775</v>
       </c>
       <c r="G37" s="7">
-        <v>1.18568811223104</v>
+        <v>1.23263890838759</v>
       </c>
       <c r="H37" s="8">
-        <v>1.04275584664703</v>
+        <v>1.22588472258821</v>
       </c>
       <c r="I37" s="6">
-        <v>726.849392999487</v>
+        <v>3840.04028399954</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="1:9">
@@ -2244,19 +2243,19 @@
         <v>1600</v>
       </c>
       <c r="E38" s="6">
-        <v>2238.26048399997</v>
+        <v>2396.54828399995</v>
       </c>
       <c r="F38" s="7">
-        <v>1.07850064911549</v>
+        <v>1.0196351878996</v>
       </c>
       <c r="G38" s="7">
-        <v>1.59066409007007</v>
+        <v>1.5060952542355</v>
       </c>
       <c r="H38" s="8">
-        <v>1.39891280249998</v>
+        <v>1.49784267749997</v>
       </c>
       <c r="I38" s="6">
-        <v>638.260483999966</v>
+        <v>796.548283999947</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="1:9">
@@ -2269,19 +2268,19 @@
         <v>1420</v>
       </c>
       <c r="E39" s="6">
-        <v>1395.453566</v>
+        <v>1493.762902</v>
       </c>
       <c r="F39" s="7">
-        <v>0.914217646960103</v>
+        <v>0.697184226226654</v>
       </c>
       <c r="G39" s="7">
-        <v>1.11741597909262</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0.982713778873238</v>
+        <v>1.05774154974198</v>
+      </c>
+      <c r="H39" s="8">
+        <v>1.0519457056338</v>
       </c>
       <c r="I39" s="6">
-        <v>-24.5464340000017</v>
+        <v>73.7629019999986</v>
       </c>
     </row>
     <row r="40" ht="18" spans="1:9">
@@ -2294,19 +2293,19 @@
         <v>20020</v>
       </c>
       <c r="E40" s="10">
-        <v>21360.5634430006</v>
+        <v>24730.351470001</v>
       </c>
       <c r="F40" s="11">
-        <v>0.315377505334853</v>
+        <v>0.328952935101915</v>
       </c>
       <c r="G40" s="11">
-        <v>1.21321134577187</v>
+        <v>1.2420882542458</v>
       </c>
       <c r="H40" s="12">
-        <v>1.06696121093909</v>
+        <v>1.23528229120884</v>
       </c>
       <c r="I40" s="10">
-        <v>1340.56344300064</v>
+        <v>4710.35147000097</v>
       </c>
     </row>
   </sheetData>
@@ -2345,13 +2344,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet3">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P127"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95:E97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -2364,7 +2363,6 @@
     <col min="7" max="7" width="13"/>
     <col min="8" max="8" width="12"/>
     <col min="9" max="9" width="11"/>
-    <col min="15" max="16" width="10.8571428571429"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:9">
@@ -2449,19 +2447,19 @@
         <v>650</v>
       </c>
       <c r="E5" s="6">
-        <v>986.255884</v>
+        <v>1162.635878</v>
       </c>
       <c r="F5" s="7">
-        <v>0.766682133962307</v>
+        <v>0.791597878825283</v>
       </c>
       <c r="G5" s="7">
-        <v>1.72529785602684</v>
+        <v>1.79852551587201</v>
       </c>
       <c r="H5" s="8">
-        <v>1.51731674461538</v>
+        <v>1.78867058153846</v>
       </c>
       <c r="I5" s="6">
-        <v>336.255884</v>
+        <v>512.635877999999</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:9">
@@ -2474,19 +2472,19 @@
         <v>50</v>
       </c>
       <c r="E6" s="6">
-        <v>6.026303</v>
+        <v>22.455511</v>
       </c>
       <c r="F6" s="7">
-        <v>1.78003961795522</v>
+        <v>9.31329615640397</v>
       </c>
       <c r="G6" s="7">
-        <v>0.137046766043614</v>
+        <v>0.451584656473829</v>
       </c>
       <c r="H6" s="7">
-        <v>0.12052606</v>
+        <v>0.44911022</v>
       </c>
       <c r="I6" s="6">
-        <v>-43.973697</v>
+        <v>-27.544489</v>
       </c>
     </row>
     <row r="7" ht="18" spans="1:9">
@@ -2499,19 +2497,19 @@
         <v>700</v>
       </c>
       <c r="E7" s="10">
-        <v>992.282187</v>
+        <v>1185.091389</v>
       </c>
       <c r="F7" s="11">
-        <v>0.77060179365485</v>
+        <v>0.820094522153134</v>
       </c>
       <c r="G7" s="11">
-        <v>1.61185134959947</v>
+        <v>1.70231545448642</v>
       </c>
       <c r="H7" s="12">
-        <v>1.41754598142857</v>
+        <v>1.69298769857143</v>
       </c>
       <c r="I7" s="10">
-        <v>292.282187</v>
+        <v>485.091388999999</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:9">
@@ -2528,19 +2526,19 @@
         <v>650</v>
       </c>
       <c r="E8" s="15">
-        <v>702.587371</v>
+        <v>792.03194</v>
       </c>
       <c r="F8" s="16">
-        <v>0.36028362489212</v>
+        <v>0.291138016690235</v>
       </c>
       <c r="G8" s="16">
-        <v>1.22906489535107</v>
+        <v>1.22522423437169</v>
       </c>
       <c r="H8" s="17">
-        <v>1.08090364769231</v>
+        <v>1.21851067692308</v>
       </c>
       <c r="I8" s="15">
-        <v>52.5873710000002</v>
+        <v>142.03194</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:9">
@@ -2553,22 +2551,22 @@
         <v>160</v>
       </c>
       <c r="E9" s="15">
-        <v>111.081797</v>
+        <v>148.546128</v>
       </c>
       <c r="F9" s="16">
-        <v>-0.0513088344265554</v>
+        <v>-0.122908570273414</v>
       </c>
       <c r="G9" s="16">
-        <v>0.789424764505451</v>
+        <v>0.933528524793389</v>
       </c>
       <c r="H9" s="16">
-        <v>0.694261231249999</v>
+        <v>0.9284133</v>
       </c>
       <c r="I9" s="15">
-        <v>-48.9182030000001</v>
-      </c>
-    </row>
-    <row r="10" ht="18" spans="1:16">
+        <v>-11.453872</v>
+      </c>
+    </row>
+    <row r="10" ht="18" spans="1:9">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="18" t="s">
@@ -2578,22 +2576,20 @@
         <v>810</v>
       </c>
       <c r="E10" s="19">
-        <v>813.669167999998</v>
+        <v>940.578068</v>
       </c>
       <c r="F10" s="20">
-        <v>0.284219999814703</v>
+        <v>0.201557149624193</v>
       </c>
       <c r="G10" s="20">
-        <v>1.14222240036921</v>
+        <v>1.16760532877597</v>
       </c>
       <c r="H10" s="21">
-        <v>1.00452983703703</v>
+        <v>1.16120749135802</v>
       </c>
       <c r="I10" s="19">
-        <v>3.66916799999763</v>
-      </c>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
+        <v>130.578068</v>
+      </c>
     </row>
     <row r="11" ht="17.25" spans="1:9">
       <c r="A11" s="4">
@@ -2606,22 +2602,22 @@
         <v>13</v>
       </c>
       <c r="D11" s="4">
-        <v>50</v>
+        <v>800</v>
       </c>
       <c r="E11" s="6">
-        <v>66.075659</v>
+        <v>915.997793</v>
       </c>
       <c r="F11" s="7">
-        <v>1.30694345522392</v>
+        <v>0.0853547008433819</v>
       </c>
       <c r="G11" s="7">
-        <v>1.50265517352025</v>
+        <v>1.15130576599518</v>
       </c>
       <c r="H11" s="8">
-        <v>1.32151318</v>
+        <v>1.14499724125</v>
       </c>
       <c r="I11" s="6">
-        <v>16.075659</v>
+        <v>115.997793</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:9">
@@ -2631,22 +2627,22 @@
         <v>27</v>
       </c>
       <c r="D12" s="4">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="E12" s="6">
-        <v>711.327151</v>
+        <v>23.887329</v>
       </c>
       <c r="F12" s="7">
-        <v>25.8306707935967</v>
+        <v>2.14379019506839</v>
       </c>
       <c r="G12" s="7">
-        <v>3.23531975221184</v>
+        <v>1.20094698140496</v>
       </c>
       <c r="H12" s="8">
-        <v>2.845308604</v>
+        <v>1.19436645</v>
       </c>
       <c r="I12" s="6">
-        <v>461.327151</v>
+        <v>3.88732899999998</v>
       </c>
     </row>
     <row r="13" ht="18" spans="1:9">
@@ -2656,22 +2652,22 @@
         <v>16</v>
       </c>
       <c r="D13" s="9">
-        <v>300</v>
+        <v>820</v>
       </c>
       <c r="E13" s="10">
-        <v>777.40281</v>
+        <v>939.885121999998</v>
       </c>
       <c r="F13" s="11">
-        <v>13.0951820597229</v>
+        <v>0.103721609604623</v>
       </c>
       <c r="G13" s="11">
-        <v>2.94654232242991</v>
+        <v>1.15251652734663</v>
       </c>
       <c r="H13" s="12">
-        <v>2.5913427</v>
+        <v>1.14620136829268</v>
       </c>
       <c r="I13" s="10">
-        <v>477.40281</v>
+        <v>119.885121999998</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:9">
@@ -2688,19 +2684,19 @@
         <v>580</v>
       </c>
       <c r="E14" s="15">
-        <v>744.240448</v>
+        <v>886.242148000001</v>
       </c>
       <c r="F14" s="16">
-        <v>1.01788421746094</v>
+        <v>1.09095457165179</v>
       </c>
       <c r="G14" s="16">
-        <v>1.45905985347513</v>
+        <v>1.53642245663532</v>
       </c>
       <c r="H14" s="17">
-        <v>1.2831731862069</v>
+        <v>1.52800370344828</v>
       </c>
       <c r="I14" s="15">
-        <v>164.240448</v>
+        <v>306.242148000001</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:9">
@@ -2713,19 +2709,19 @@
         <v>30</v>
       </c>
       <c r="E15" s="15">
-        <v>30.6522490000002</v>
+        <v>33.5557090000002</v>
       </c>
       <c r="F15" s="16">
-        <v>70.2263250842342</v>
+        <v>72.0669597557741</v>
       </c>
       <c r="G15" s="16">
-        <v>1.16179344600208</v>
+        <v>1.12468629797981</v>
       </c>
       <c r="H15" s="17">
-        <v>1.02174163333334</v>
+        <v>1.11852363333334</v>
       </c>
       <c r="I15" s="15">
-        <v>0.652249000000186</v>
+        <v>3.55570900000025</v>
       </c>
     </row>
     <row r="16" ht="18" spans="1:9">
@@ -2738,19 +2734,19 @@
         <v>610</v>
       </c>
       <c r="E16" s="19">
-        <v>774.892696999999</v>
+        <v>919.797856999998</v>
       </c>
       <c r="F16" s="20">
-        <v>1.09854406520701</v>
+        <v>1.16777537039767</v>
       </c>
       <c r="G16" s="20">
-        <v>1.44444019409121</v>
+        <v>1.51617313735717</v>
       </c>
       <c r="H16" s="21">
-        <v>1.27031589672131</v>
+        <v>1.50786533934426</v>
       </c>
       <c r="I16" s="19">
-        <v>164.892696999999</v>
+        <v>309.797856999998</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="1:9">
@@ -2758,28 +2754,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="4">
-        <v>450</v>
+        <v>780</v>
       </c>
       <c r="E17" s="6">
-        <v>399.086924999998</v>
+        <v>846.693978999998</v>
       </c>
       <c r="F17" s="7">
-        <v>0.254432415454773</v>
+        <v>0.0769046549139782</v>
       </c>
       <c r="G17" s="7">
-        <v>1.00842317497403</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0.886859833333329</v>
+        <v>1.09148584564173</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1.08550510128205</v>
       </c>
       <c r="I17" s="6">
-        <v>-50.9130750000021</v>
+        <v>66.6939789999981</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:9">
@@ -2789,22 +2785,22 @@
         <v>27</v>
       </c>
       <c r="D18" s="4">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="E18" s="6">
-        <v>373.801953</v>
+        <v>47.5291600000001</v>
       </c>
       <c r="F18" s="7">
-        <v>0.223583217759386</v>
+        <v>0.248978765093717</v>
       </c>
       <c r="G18" s="7">
-        <v>1.06259900969626</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0.9345048825</v>
+        <v>1.19477571625345</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1.188229</v>
       </c>
       <c r="I18" s="6">
-        <v>-26.1980470000001</v>
+        <v>7.5291600000001</v>
       </c>
     </row>
     <row r="19" ht="18" spans="1:9">
@@ -2814,22 +2810,22 @@
         <v>16</v>
       </c>
       <c r="D19" s="9">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="E19" s="10">
-        <v>772.888877999997</v>
+        <v>894.223138999998</v>
       </c>
       <c r="F19" s="11">
-        <v>0.239320534767724</v>
+        <v>0.084848740276867</v>
       </c>
       <c r="G19" s="11">
-        <v>1.03391768543155</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0.909281032941173</v>
+        <v>1.09652437591547</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1.09051602317073</v>
       </c>
       <c r="I19" s="10">
-        <v>-77.1111220000028</v>
+        <v>74.2231389999984</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:9">
@@ -2837,28 +2833,28 @@
         <v>6</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="13">
-        <v>780</v>
+        <v>450</v>
       </c>
       <c r="E20" s="15">
-        <v>716.216925999998</v>
+        <v>506.574677999997</v>
       </c>
       <c r="F20" s="16">
-        <v>0.0415733660446915</v>
+        <v>0.282871091512599</v>
       </c>
       <c r="G20" s="16">
-        <v>1.04408969562265</v>
-      </c>
-      <c r="H20" s="16">
-        <v>0.918226828205126</v>
+        <v>1.13192382901744</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1.12572150666666</v>
       </c>
       <c r="I20" s="15">
-        <v>-63.7830740000016</v>
+        <v>56.5746779999974</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:9">
@@ -2868,22 +2864,22 @@
         <v>27</v>
       </c>
       <c r="D21" s="13">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="E21" s="15">
-        <v>46.9501290000001</v>
+        <v>370.553168</v>
       </c>
       <c r="F21" s="16">
-        <v>0.272694189422894</v>
+        <v>0.147880920895276</v>
       </c>
       <c r="G21" s="16">
-        <v>1.33464151752337</v>
-      </c>
-      <c r="H21" s="17">
-        <v>1.173753225</v>
+        <v>0.931486958126721</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0.92638292</v>
       </c>
       <c r="I21" s="15">
-        <v>6.95012900000009</v>
+        <v>-29.4468320000002</v>
       </c>
     </row>
     <row r="22" ht="18" spans="1:9">
@@ -2893,22 +2889,22 @@
         <v>16</v>
       </c>
       <c r="D22" s="18">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="E22" s="19">
-        <v>763.167054999998</v>
+        <v>877.127845999998</v>
       </c>
       <c r="F22" s="20">
-        <v>0.0533413296138867</v>
+        <v>0.222152945864631</v>
       </c>
       <c r="G22" s="20">
-        <v>1.05826295522756</v>
-      </c>
-      <c r="H22" s="20">
-        <v>0.930691530487802</v>
+        <v>1.0376005956571</v>
+      </c>
+      <c r="H22" s="21">
+        <v>1.03191511294117</v>
       </c>
       <c r="I22" s="19">
-        <v>-56.832945000002</v>
+        <v>27.1278459999978</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="1:9">
@@ -2922,22 +2918,22 @@
         <v>13</v>
       </c>
       <c r="D23" s="4">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E23" s="6">
-        <v>727.77058</v>
+        <v>804.313490999999</v>
       </c>
       <c r="F23" s="7">
-        <v>0.00223994120395221</v>
+        <v>0.366134557094884</v>
       </c>
       <c r="G23" s="7">
-        <v>1.03440911876947</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0.909713225</v>
+        <v>1.24422303121424</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1.23740537076923</v>
       </c>
       <c r="I23" s="6">
-        <v>-72.2294200000001</v>
+        <v>154.313490999999</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="1:9">
@@ -2947,22 +2943,22 @@
         <v>27</v>
       </c>
       <c r="D24" s="4">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E24" s="6">
-        <v>20.325164</v>
+        <v>56.8028610000004</v>
       </c>
       <c r="F24" s="7">
-        <v>1.81496488350986</v>
+        <v>0.153880473185806</v>
       </c>
       <c r="G24" s="7">
-        <v>1.1555583894081</v>
+        <v>1.03846953493615</v>
       </c>
       <c r="H24" s="8">
-        <v>1.0162582</v>
+        <v>1.0327792909091</v>
       </c>
       <c r="I24" s="6">
-        <v>0.325163999999987</v>
+        <v>1.80286100000036</v>
       </c>
     </row>
     <row r="25" ht="18" spans="1:9">
@@ -2972,22 +2968,22 @@
         <v>16</v>
       </c>
       <c r="D25" s="9">
-        <v>820</v>
+        <v>705</v>
       </c>
       <c r="E25" s="10">
-        <v>748.095743999999</v>
+        <v>861.116351999996</v>
       </c>
       <c r="F25" s="11">
-        <v>0.0200872661053957</v>
+        <v>0.349756624739437</v>
       </c>
       <c r="G25" s="11">
-        <v>1.03736397902895</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0.912311882926828</v>
+        <v>1.22817134001523</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1.22144163404255</v>
       </c>
       <c r="I25" s="10">
-        <v>-71.9042560000014</v>
+        <v>156.116351999996</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="1:9">
@@ -3001,22 +2997,22 @@
         <v>13</v>
       </c>
       <c r="D26" s="13">
-        <v>650</v>
+        <v>50</v>
       </c>
       <c r="E26" s="15">
-        <v>684.982341</v>
+        <v>76.185992</v>
       </c>
       <c r="F26" s="16">
-        <v>0.319851829729438</v>
+        <v>1.32825978866393</v>
       </c>
       <c r="G26" s="16">
-        <v>1.1982676945363</v>
+        <v>1.53211499063361</v>
       </c>
       <c r="H26" s="17">
-        <v>1.05381898615385</v>
+        <v>1.52371984</v>
       </c>
       <c r="I26" s="15">
-        <v>34.9823409999997</v>
+        <v>26.185992</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:9">
@@ -3026,22 +3022,22 @@
         <v>27</v>
       </c>
       <c r="D27" s="13">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E27" s="15">
-        <v>52.2603940000004</v>
+        <v>734.588142</v>
       </c>
       <c r="F27" s="16">
-        <v>0.0753139832459371</v>
+        <v>26.7080561021378</v>
       </c>
       <c r="G27" s="16">
-        <v>1.08043295440386</v>
-      </c>
-      <c r="H27" s="16">
-        <v>0.95018898181819</v>
+        <v>2.95454183834711</v>
+      </c>
+      <c r="H27" s="17">
+        <v>2.938352568</v>
       </c>
       <c r="I27" s="15">
-        <v>-2.73960599999957</v>
+        <v>484.588142</v>
       </c>
     </row>
     <row r="28" ht="18" spans="1:9">
@@ -3051,22 +3047,22 @@
         <v>16</v>
       </c>
       <c r="D28" s="18">
-        <v>705</v>
+        <v>300</v>
       </c>
       <c r="E28" s="19">
-        <v>737.242734999998</v>
+        <v>810.774134</v>
       </c>
       <c r="F28" s="20">
-        <v>0.29891297029435</v>
+        <v>12.6876462536124</v>
       </c>
       <c r="G28" s="20">
-        <v>1.18907491339122</v>
+        <v>2.71747069706152</v>
       </c>
       <c r="H28" s="21">
-        <v>1.04573437588652</v>
+        <v>2.70258044666667</v>
       </c>
       <c r="I28" s="19">
-        <v>32.2427349999975</v>
+        <v>510.774134</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:9">
@@ -3083,19 +3079,19 @@
         <v>500</v>
       </c>
       <c r="E29" s="6">
-        <v>625.011078999998</v>
+        <v>731.001628999998</v>
       </c>
       <c r="F29" s="7">
-        <v>0.445248047722433</v>
+        <v>0.486983186694161</v>
       </c>
       <c r="G29" s="7">
-        <v>1.42136475909657</v>
+        <v>1.47005837236914</v>
       </c>
       <c r="H29" s="8">
-        <v>1.250022158</v>
+        <v>1.462003258</v>
       </c>
       <c r="I29" s="6">
-        <v>125.011078999998</v>
+        <v>231.001628999998</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="1:9">
@@ -3108,19 +3104,19 @@
         <v>55</v>
       </c>
       <c r="E30" s="6">
-        <v>33.3876790000001</v>
+        <v>47.5925940000002</v>
       </c>
       <c r="F30" s="7">
-        <v>-0.0981843289734589</v>
+        <v>0.00536870156791269</v>
       </c>
       <c r="G30" s="7">
-        <v>0.690257877938264</v>
+        <v>0.870087493613827</v>
       </c>
       <c r="H30" s="7">
-        <v>0.607048709090911</v>
+        <v>0.865319890909094</v>
       </c>
       <c r="I30" s="6">
-        <v>-21.6123209999999</v>
+        <v>-7.40740599999985</v>
       </c>
     </row>
     <row r="31" ht="18" spans="1:9">
@@ -3133,19 +3129,19 @@
         <v>555</v>
       </c>
       <c r="E31" s="10">
-        <v>658.398757999997</v>
+        <v>778.594222999998</v>
       </c>
       <c r="F31" s="11">
-        <v>0.402393698005709</v>
+        <v>0.444679909596058</v>
       </c>
       <c r="G31" s="11">
-        <v>1.34891272582863</v>
+        <v>1.41060179879879</v>
       </c>
       <c r="H31" s="12">
-        <v>1.18630406846846</v>
+        <v>1.40287247387387</v>
       </c>
       <c r="I31" s="10">
-        <v>103.398757999997</v>
+        <v>223.594222999998</v>
       </c>
     </row>
     <row r="32" ht="17.25" spans="1:9">
@@ -3162,19 +3158,19 @@
         <v>620</v>
       </c>
       <c r="E32" s="15">
-        <v>594.248466</v>
+        <v>719.783733</v>
       </c>
       <c r="F32" s="16">
-        <v>0.110554513643733</v>
+        <v>0.15853079658521</v>
       </c>
       <c r="G32" s="16">
-        <v>1.08984368450407</v>
-      </c>
-      <c r="H32" s="16">
-        <v>0.958465267741936</v>
+        <v>1.1673378767662</v>
+      </c>
+      <c r="H32" s="17">
+        <v>1.16094150483871</v>
       </c>
       <c r="I32" s="15">
-        <v>-25.7515339999999</v>
+        <v>99.783733</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="1:9">
@@ -3187,19 +3183,19 @@
         <v>20</v>
       </c>
       <c r="E33" s="15">
-        <v>5.66876399999999</v>
+        <v>6.23119099999999</v>
       </c>
       <c r="F33" s="16">
-        <v>3.00974715401493</v>
+        <v>2.49042138082237</v>
       </c>
       <c r="G33" s="16">
-        <v>0.322289542056074</v>
+        <v>0.313276131542699</v>
       </c>
       <c r="H33" s="16">
-        <v>0.283438199999999</v>
+        <v>0.311559549999999</v>
       </c>
       <c r="I33" s="15">
-        <v>-14.331236</v>
+        <v>-13.768809</v>
       </c>
     </row>
     <row r="34" ht="18" spans="1:9">
@@ -3212,19 +3208,19 @@
         <v>640</v>
       </c>
       <c r="E34" s="19">
-        <v>599.917229999999</v>
+        <v>726.014923999999</v>
       </c>
       <c r="F34" s="20">
-        <v>0.118194179338127</v>
+        <v>0.165212094045597</v>
       </c>
       <c r="G34" s="20">
-        <v>1.06585761755257</v>
-      </c>
-      <c r="H34" s="20">
-        <v>0.937370671874998</v>
+        <v>1.14064844722796</v>
+      </c>
+      <c r="H34" s="21">
+        <v>1.13439831875</v>
       </c>
       <c r="I34" s="19">
-        <v>-40.082770000001</v>
+        <v>86.014923999999</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="1:9">
@@ -3238,22 +3234,22 @@
         <v>13</v>
       </c>
       <c r="D35" s="4">
-        <v>420</v>
+        <v>550</v>
       </c>
       <c r="E35" s="6">
-        <v>538.255329</v>
+        <v>650.224846999999</v>
       </c>
       <c r="F35" s="7">
-        <v>0.43698852358242</v>
+        <v>0.255832065397652</v>
       </c>
       <c r="G35" s="7">
-        <v>1.45722589441478</v>
+        <v>1.18874064189832</v>
       </c>
       <c r="H35" s="8">
-        <v>1.28156030714286</v>
+        <v>1.18222699454545</v>
       </c>
       <c r="I35" s="6">
-        <v>118.255329</v>
+        <v>100.224846999999</v>
       </c>
     </row>
     <row r="36" ht="17.25" spans="1:9">
@@ -3263,22 +3259,22 @@
         <v>27</v>
       </c>
       <c r="D36" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E36" s="6">
-        <v>34.256693</v>
+        <v>36.8182960000001</v>
       </c>
       <c r="F36" s="7">
-        <v>1.99871128752636</v>
+        <v>0.284837824640278</v>
       </c>
       <c r="G36" s="7">
-        <v>1.94761572352025</v>
+        <v>1.23403838751148</v>
       </c>
       <c r="H36" s="8">
-        <v>1.71283465</v>
+        <v>1.22727653333334</v>
       </c>
       <c r="I36" s="6">
-        <v>14.256693</v>
+        <v>6.8182960000001</v>
       </c>
     </row>
     <row r="37" ht="18" spans="1:9">
@@ -3288,22 +3284,22 @@
         <v>16</v>
       </c>
       <c r="D37" s="9">
-        <v>440</v>
+        <v>580</v>
       </c>
       <c r="E37" s="10">
-        <v>572.512021999999</v>
+        <v>687.043142999999</v>
       </c>
       <c r="F37" s="11">
-        <v>0.483208785315304</v>
+        <v>0.257353218395271</v>
       </c>
       <c r="G37" s="11">
-        <v>1.47951634119229</v>
+        <v>1.19108362874038</v>
       </c>
       <c r="H37" s="12">
-        <v>1.30116368636363</v>
+        <v>1.18455714310345</v>
       </c>
       <c r="I37" s="10">
-        <v>132.512021999999</v>
+        <v>107.043142999999</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="1:9">
@@ -3317,22 +3313,22 @@
         <v>13</v>
       </c>
       <c r="D38" s="13">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="E38" s="15">
-        <v>543.514508999999</v>
+        <v>658.052134</v>
       </c>
       <c r="F38" s="16">
-        <v>0.200536518811463</v>
+        <v>0.0721322661101098</v>
       </c>
       <c r="G38" s="16">
-        <v>1.12366352752761</v>
-      </c>
-      <c r="H38" s="16">
-        <v>0.988208198181817</v>
+        <v>1.0672222025682</v>
+      </c>
+      <c r="H38" s="17">
+        <v>1.06137440967742</v>
       </c>
       <c r="I38" s="15">
-        <v>-6.48549100000071</v>
+        <v>38.052134</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="1:9">
@@ -3342,22 +3338,22 @@
         <v>27</v>
       </c>
       <c r="D39" s="13">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E39" s="15">
-        <v>27.8363600000001</v>
+        <v>10.790675</v>
       </c>
       <c r="F39" s="16">
-        <v>0.0823022350169724</v>
+        <v>0.318242256513652</v>
       </c>
       <c r="G39" s="16">
-        <v>1.05506452751817</v>
+        <v>0.542506387741047</v>
       </c>
       <c r="H39" s="16">
-        <v>0.927878666666669</v>
+        <v>0.539533750000001</v>
       </c>
       <c r="I39" s="15">
-        <v>-2.16363999999994</v>
+        <v>-9.20932499999999</v>
       </c>
     </row>
     <row r="40" ht="18" spans="1:9">
@@ -3367,22 +3363,22 @@
         <v>16</v>
       </c>
       <c r="D40" s="18">
-        <v>580</v>
+        <v>640</v>
       </c>
       <c r="E40" s="19">
-        <v>571.350868999999</v>
+        <v>668.842809</v>
       </c>
       <c r="F40" s="20">
-        <v>0.194180656884055</v>
+        <v>0.0753713113288206</v>
       </c>
       <c r="G40" s="20">
-        <v>1.12011530338919</v>
-      </c>
-      <c r="H40" s="20">
-        <v>0.985087705172412</v>
+        <v>1.05082483335486</v>
+      </c>
+      <c r="H40" s="21">
+        <v>1.0450668890625</v>
       </c>
       <c r="I40" s="19">
-        <v>-8.64913100000126</v>
+        <v>28.8428090000001</v>
       </c>
     </row>
     <row r="41" ht="17.25" spans="1:9">
@@ -3396,22 +3392,22 @@
         <v>13</v>
       </c>
       <c r="D41" s="4">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="E41" s="6">
-        <v>510.947336999998</v>
+        <v>625.98086</v>
       </c>
       <c r="F41" s="7">
-        <v>0.217203472037456</v>
+        <v>0.524307017823359</v>
       </c>
       <c r="G41" s="7">
-        <v>1.21038277521417</v>
+        <v>1.49864235799554</v>
       </c>
       <c r="H41" s="8">
-        <v>1.06447361875</v>
+        <v>1.49043061904762</v>
       </c>
       <c r="I41" s="6">
-        <v>30.9473369999978</v>
+        <v>205.98086</v>
       </c>
     </row>
     <row r="42" ht="17.25" spans="1:9">
@@ -3421,22 +3417,22 @@
         <v>27</v>
       </c>
       <c r="D42" s="4">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E42" s="6">
-        <v>42.7599040000001</v>
+        <v>34.9122760000001</v>
       </c>
       <c r="F42" s="7">
-        <v>1.32622887151372</v>
+        <v>1.87160218293342</v>
       </c>
       <c r="G42" s="7">
-        <v>1.3891735611927</v>
+        <v>1.75523150688706</v>
       </c>
       <c r="H42" s="8">
-        <v>1.22171154285715</v>
+        <v>1.74561380000001</v>
       </c>
       <c r="I42" s="6">
-        <v>7.75990400000009</v>
+        <v>14.9122760000001</v>
       </c>
     </row>
     <row r="43" ht="18" spans="1:9">
@@ -3446,22 +3442,22 @@
         <v>16</v>
       </c>
       <c r="D43" s="9">
-        <v>515</v>
+        <v>440</v>
       </c>
       <c r="E43" s="10">
-        <v>553.707240999996</v>
+        <v>660.893135999999</v>
       </c>
       <c r="F43" s="11">
-        <v>0.263729913304801</v>
+        <v>0.563046818712118</v>
       </c>
       <c r="G43" s="11">
-        <v>1.22253360532921</v>
+        <v>1.51030550112697</v>
       </c>
       <c r="H43" s="12">
-        <v>1.07515969126213</v>
+        <v>1.50202985454545</v>
       </c>
       <c r="I43" s="10">
-        <v>38.7072409999957</v>
+        <v>220.893135999999</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="1:9">
@@ -3475,22 +3471,22 @@
         <v>13</v>
       </c>
       <c r="D44" s="13">
-        <v>620</v>
+        <v>480</v>
       </c>
       <c r="E44" s="15">
-        <v>534.329848</v>
+        <v>579.331600999998</v>
       </c>
       <c r="F44" s="16">
-        <v>-0.0134791415011061</v>
+        <v>0.224827113338912</v>
       </c>
       <c r="G44" s="16">
-        <v>0.97995374595518</v>
-      </c>
-      <c r="H44" s="16">
-        <v>0.861822335483871</v>
+        <v>1.21359064718204</v>
+      </c>
+      <c r="H44" s="17">
+        <v>1.20694083541666</v>
       </c>
       <c r="I44" s="15">
-        <v>-85.6701520000003</v>
+        <v>99.3316009999982</v>
       </c>
     </row>
     <row r="45" ht="17.25" spans="1:9">
@@ -3500,22 +3496,22 @@
         <v>27</v>
       </c>
       <c r="D45" s="13">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E45" s="15">
-        <v>8.74103700000001</v>
+        <v>46.9481890000002</v>
       </c>
       <c r="F45" s="16">
-        <v>0.199145524974113</v>
+        <v>1.45722569198435</v>
       </c>
       <c r="G45" s="16">
-        <v>0.496959268691589</v>
-      </c>
-      <c r="H45" s="16">
-        <v>0.43705185</v>
+        <v>1.34876733451398</v>
+      </c>
+      <c r="H45" s="17">
+        <v>1.34137682857143</v>
       </c>
       <c r="I45" s="15">
-        <v>-11.258963</v>
+        <v>11.9481890000002</v>
       </c>
     </row>
     <row r="46" ht="18" spans="1:9">
@@ -3525,22 +3521,22 @@
         <v>16</v>
       </c>
       <c r="D46" s="18">
-        <v>640</v>
+        <v>515</v>
       </c>
       <c r="E46" s="19">
-        <v>543.070885</v>
+        <v>626.279789999995</v>
       </c>
       <c r="F46" s="20">
-        <v>-0.0106555901080745</v>
+        <v>0.272676298265743</v>
       </c>
       <c r="G46" s="20">
-        <v>0.964860168540693</v>
-      </c>
-      <c r="H46" s="20">
-        <v>0.8485482578125</v>
+        <v>1.22277741234052</v>
+      </c>
+      <c r="H46" s="21">
+        <v>1.21607726213591</v>
       </c>
       <c r="I46" s="19">
-        <v>-96.9291149999999</v>
+        <v>111.279789999995</v>
       </c>
     </row>
     <row r="47" ht="17.25" spans="1:9">
@@ -3557,19 +3553,19 @@
         <v>650</v>
       </c>
       <c r="E47" s="6">
-        <v>511.865786</v>
+        <v>588.156061000001</v>
       </c>
       <c r="F47" s="7">
-        <v>0.0706527779614681</v>
+        <v>0.0737417514836642</v>
       </c>
       <c r="G47" s="7">
-        <v>0.895427806805655</v>
+        <v>0.909840908094936</v>
       </c>
       <c r="H47" s="7">
-        <v>0.787485824615385</v>
+        <v>0.90485547846154</v>
       </c>
       <c r="I47" s="6">
-        <v>-138.134214</v>
+        <v>-61.8439389999993</v>
       </c>
     </row>
     <row r="48" ht="17.25" spans="1:9">
@@ -3582,19 +3578,19 @@
         <v>50</v>
       </c>
       <c r="E48" s="6">
-        <v>19.120211</v>
+        <v>20.437812</v>
       </c>
       <c r="F48" s="7">
-        <v>0.629507654638527</v>
+        <v>0.707478889826078</v>
       </c>
       <c r="G48" s="7">
-        <v>0.434820997819314</v>
+        <v>0.411008340495868</v>
       </c>
       <c r="H48" s="7">
-        <v>0.38240422</v>
+        <v>0.40875624</v>
       </c>
       <c r="I48" s="6">
-        <v>-30.879789</v>
+        <v>-29.562188</v>
       </c>
     </row>
     <row r="49" ht="18" spans="1:9">
@@ -3607,19 +3603,19 @@
         <v>700</v>
       </c>
       <c r="E49" s="10">
-        <v>530.985996999999</v>
+        <v>608.593873</v>
       </c>
       <c r="F49" s="11">
-        <v>0.0840402213945346</v>
+        <v>0.0872938822624096</v>
       </c>
       <c r="G49" s="11">
-        <v>0.862527320449487</v>
+        <v>0.874210010409287</v>
       </c>
       <c r="H49" s="11">
-        <v>0.758551424285713</v>
+        <v>0.869419818571428</v>
       </c>
       <c r="I49" s="10">
-        <v>-169.014003000001</v>
+        <v>-91.4061270000002</v>
       </c>
     </row>
     <row r="50" ht="17.25" spans="1:9">
@@ -3636,19 +3632,19 @@
         <v>400</v>
       </c>
       <c r="E50" s="15">
-        <v>445.732457</v>
+        <v>522.275439</v>
       </c>
       <c r="F50" s="16">
-        <v>1.57478408553174</v>
+        <v>1.48476758939581</v>
       </c>
       <c r="G50" s="16">
-        <v>1.26707435206386</v>
+        <v>1.31288247407025</v>
       </c>
       <c r="H50" s="17">
-        <v>1.1143311425</v>
+        <v>1.3056885975</v>
       </c>
       <c r="I50" s="15">
-        <v>45.7324570000003</v>
+        <v>122.275439</v>
       </c>
     </row>
     <row r="51" ht="17.25" spans="1:9">
@@ -3661,19 +3657,19 @@
         <v>30</v>
       </c>
       <c r="E51" s="15">
-        <v>20.273822</v>
+        <v>20.708179</v>
       </c>
       <c r="F51" s="16">
-        <v>0.484699783217574</v>
+        <v>0.498225918476608</v>
       </c>
       <c r="G51" s="16">
-        <v>0.768426275181723</v>
+        <v>0.694075788337924</v>
       </c>
       <c r="H51" s="16">
-        <v>0.675794066666666</v>
+        <v>0.690272633333332</v>
       </c>
       <c r="I51" s="15">
-        <v>-9.72617800000003</v>
+        <v>-9.29182100000003</v>
       </c>
     </row>
     <row r="52" ht="18" spans="1:9">
@@ -3686,19 +3682,19 @@
         <v>430</v>
       </c>
       <c r="E52" s="19">
-        <v>466.006279</v>
+        <v>542.983618</v>
       </c>
       <c r="F52" s="20">
-        <v>1.49508547868306</v>
+        <v>1.42389700464296</v>
       </c>
       <c r="G52" s="20">
-        <v>1.23228495135116</v>
+        <v>1.26970991460055</v>
       </c>
       <c r="H52" s="21">
-        <v>1.08373553255814</v>
+        <v>1.2627526</v>
       </c>
       <c r="I52" s="19">
-        <v>36.0062789999998</v>
+        <v>112.983618</v>
       </c>
     </row>
     <row r="53" ht="17.25" spans="1:9">
@@ -3715,19 +3711,19 @@
         <v>440</v>
       </c>
       <c r="E53" s="6">
-        <v>445.728669999997</v>
+        <v>509.491071999996</v>
       </c>
       <c r="F53" s="7">
-        <v>0.126965971177011</v>
+        <v>0.129247555427098</v>
       </c>
       <c r="G53" s="7">
-        <v>1.15187598803454</v>
+        <v>1.16431405760079</v>
       </c>
       <c r="H53" s="8">
-        <v>1.01301970454545</v>
+        <v>1.15793425454545</v>
       </c>
       <c r="I53" s="6">
-        <v>5.72866999999712</v>
+        <v>69.4910719999963</v>
       </c>
     </row>
     <row r="54" ht="17.25" spans="1:9">
@@ -3740,19 +3736,19 @@
         <v>20</v>
       </c>
       <c r="E54" s="6">
-        <v>13.200248</v>
+        <v>14.831095</v>
       </c>
       <c r="F54" s="7">
-        <v>1.15413527454264</v>
+        <v>1.23010168392574</v>
       </c>
       <c r="G54" s="7">
-        <v>0.750481389408099</v>
+        <v>0.745640451101926</v>
       </c>
       <c r="H54" s="7">
-        <v>0.660012399999999</v>
+        <v>0.741554749999998</v>
       </c>
       <c r="I54" s="6">
-        <v>-6.79975200000001</v>
+        <v>-5.16890500000004</v>
       </c>
     </row>
     <row r="55" ht="18" spans="1:9">
@@ -3765,19 +3761,19 @@
         <v>460</v>
       </c>
       <c r="E55" s="10">
-        <v>458.928917999996</v>
+        <v>524.322166999995</v>
       </c>
       <c r="F55" s="11">
-        <v>0.142637603658532</v>
+        <v>0.14523857203921</v>
       </c>
       <c r="G55" s="11">
-        <v>1.13442404896383</v>
-      </c>
-      <c r="H55" s="11">
-        <v>0.997671560869557</v>
+        <v>1.14611085731823</v>
+      </c>
+      <c r="H55" s="12">
+        <v>1.13983079782608</v>
       </c>
       <c r="I55" s="10">
-        <v>-1.07108200000357</v>
+        <v>64.3221669999955</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="1:9">
@@ -3794,19 +3790,19 @@
         <v>440</v>
       </c>
       <c r="E56" s="15">
-        <v>428.483565999999</v>
+        <v>484.243460999999</v>
       </c>
       <c r="F56" s="16">
-        <v>0.165465868010771</v>
+        <v>0.165691790934218</v>
       </c>
       <c r="G56" s="16">
-        <v>1.10731026331068</v>
-      </c>
-      <c r="H56" s="16">
-        <v>0.973826286363635</v>
+        <v>1.1066169751127</v>
+      </c>
+      <c r="H56" s="17">
+        <v>1.10055332045454</v>
       </c>
       <c r="I56" s="15">
-        <v>-11.5164340000006</v>
+        <v>44.2434609999991</v>
       </c>
     </row>
     <row r="57" ht="17.25" spans="1:9">
@@ -3819,19 +3815,19 @@
         <v>20</v>
       </c>
       <c r="E57" s="15">
-        <v>12.609536</v>
+        <v>13.352288</v>
       </c>
       <c r="F57" s="16">
-        <v>2.99786561287379</v>
+        <v>2.94451913620675</v>
       </c>
       <c r="G57" s="16">
-        <v>0.716897295950155</v>
+        <v>0.671292716253443</v>
       </c>
       <c r="H57" s="16">
-        <v>0.6304768</v>
+        <v>0.6676144</v>
       </c>
       <c r="I57" s="15">
-        <v>-7.39046400000001</v>
+        <v>-6.64771200000001</v>
       </c>
     </row>
     <row r="58" ht="18" spans="1:9">
@@ -3844,19 +3840,19 @@
         <v>460</v>
       </c>
       <c r="E58" s="19">
-        <v>441.093101999999</v>
+        <v>497.595748999998</v>
       </c>
       <c r="F58" s="20">
-        <v>0.189558316130917</v>
+        <v>0.188152249611311</v>
       </c>
       <c r="G58" s="20">
-        <v>1.09033578646891</v>
-      </c>
-      <c r="H58" s="20">
-        <v>0.958898047826084</v>
+        <v>1.08768983342316</v>
+      </c>
+      <c r="H58" s="21">
+        <v>1.08172988913043</v>
       </c>
       <c r="I58" s="19">
-        <v>-18.9068980000014</v>
+        <v>37.5957489999981</v>
       </c>
     </row>
     <row r="59" ht="17.25" spans="1:9">
@@ -3873,19 +3869,19 @@
         <v>370</v>
       </c>
       <c r="E59" s="6">
-        <v>404.099105</v>
+        <v>482.70302</v>
       </c>
       <c r="F59" s="7">
-        <v>0.271990361130953</v>
+        <v>0.37448726137049</v>
       </c>
       <c r="G59" s="7">
-        <v>1.241863882504</v>
+        <v>1.31179065073338</v>
       </c>
       <c r="H59" s="8">
-        <v>1.09215974324324</v>
+        <v>1.30460275675676</v>
       </c>
       <c r="I59" s="6">
-        <v>34.0991049999998</v>
+        <v>112.70302</v>
       </c>
     </row>
     <row r="60" ht="17.25" spans="1:9">
@@ -3898,19 +3894,19 @@
         <v>10</v>
       </c>
       <c r="E60" s="6">
-        <v>13.203647</v>
+        <v>14.660609</v>
       </c>
       <c r="F60" s="7">
-        <v>0.865509739015214</v>
+        <v>0.669569197295131</v>
       </c>
       <c r="G60" s="7">
-        <v>1.5013492694704</v>
+        <v>1.47413837052341</v>
       </c>
       <c r="H60" s="8">
-        <v>1.3203647</v>
+        <v>1.4660609</v>
       </c>
       <c r="I60" s="6">
-        <v>3.20364699999998</v>
+        <v>4.66060899999998</v>
       </c>
     </row>
     <row r="61" ht="18" spans="1:9">
@@ -3923,19 +3919,19 @@
         <v>380</v>
       </c>
       <c r="E61" s="10">
-        <v>417.302752</v>
+        <v>497.363628999999</v>
       </c>
       <c r="F61" s="11">
-        <v>0.284925105587327</v>
+        <v>0.381685485812964</v>
       </c>
       <c r="G61" s="11">
-        <v>1.2486924453189</v>
+        <v>1.3160629591489</v>
       </c>
       <c r="H61" s="12">
-        <v>1.0981651368421</v>
+        <v>1.30885165526316</v>
       </c>
       <c r="I61" s="10">
-        <v>37.3027519999997</v>
+        <v>117.363628999999</v>
       </c>
     </row>
     <row r="62" ht="17.25" spans="1:9">
@@ -3952,19 +3948,19 @@
         <v>350</v>
       </c>
       <c r="E62" s="15">
-        <v>308.200714999999</v>
+        <v>355.223014999999</v>
       </c>
       <c r="F62" s="16">
-        <v>-0.0525817652624463</v>
+        <v>-0.00722087666481708</v>
       </c>
       <c r="G62" s="16">
-        <v>1.00127513106364</v>
-      </c>
-      <c r="H62" s="16">
-        <v>0.880573471428569</v>
+        <v>1.02051476170799</v>
+      </c>
+      <c r="H62" s="17">
+        <v>1.0149229</v>
       </c>
       <c r="I62" s="15">
-        <v>-41.7992850000007</v>
+        <v>5.22301499999924</v>
       </c>
     </row>
     <row r="63" ht="17.25" spans="1:9">
@@ -3977,19 +3973,19 @@
         <v>20</v>
       </c>
       <c r="E63" s="15">
-        <v>98.9168029999999</v>
+        <v>99.8166569999998</v>
       </c>
       <c r="F63" s="16">
-        <v>4.68656663305513</v>
+        <v>4.66485419691107</v>
       </c>
       <c r="G63" s="16">
-        <v>5.6237746253894</v>
+        <v>5.01833055165288</v>
       </c>
       <c r="H63" s="17">
-        <v>4.94584015</v>
+        <v>4.99083284999999</v>
       </c>
       <c r="I63" s="15">
-        <v>78.9168029999999</v>
+        <v>79.8166569999998</v>
       </c>
     </row>
     <row r="64" ht="18" spans="1:9">
@@ -4002,19 +3998,19 @@
         <v>370</v>
       </c>
       <c r="E64" s="19">
-        <v>407.117517999998</v>
+        <v>455.039671999997</v>
       </c>
       <c r="F64" s="20">
-        <v>0.187968181867572</v>
+        <v>0.212058887618778</v>
       </c>
       <c r="G64" s="20">
-        <v>1.25113996859476</v>
+        <v>1.23661291251581</v>
       </c>
       <c r="H64" s="21">
-        <v>1.10031761621621</v>
+        <v>1.22983695135134</v>
       </c>
       <c r="I64" s="19">
-        <v>37.1175179999979</v>
+        <v>85.039671999997</v>
       </c>
     </row>
     <row r="65" ht="17.25" spans="1:9">
@@ -4031,19 +4027,19 @@
         <v>330</v>
       </c>
       <c r="E65" s="6">
-        <v>385.788387999999</v>
+        <v>438.619148999999</v>
       </c>
       <c r="F65" s="7">
-        <v>0.430840542089474</v>
+        <v>0.396819695054515</v>
       </c>
       <c r="G65" s="7">
-        <v>1.32930011913528</v>
+        <v>1.33647207099925</v>
       </c>
       <c r="H65" s="8">
-        <v>1.16905572121212</v>
+        <v>1.32914893636363</v>
       </c>
       <c r="I65" s="6">
-        <v>55.7883879999991</v>
+        <v>108.619148999999</v>
       </c>
     </row>
     <row r="66" ht="17.25" spans="1:9">
@@ -4056,19 +4052,19 @@
         <v>20</v>
       </c>
       <c r="E66" s="6">
-        <v>6.05495899999999</v>
+        <v>7.09593799999999</v>
       </c>
       <c r="F66" s="7">
-        <v>3.46514764584465</v>
+        <v>2.88820224965369</v>
       </c>
       <c r="G66" s="7">
-        <v>0.344246111370716</v>
+        <v>0.356751703856749</v>
       </c>
       <c r="H66" s="7">
-        <v>0.302747949999999</v>
+        <v>0.354796899999999</v>
       </c>
       <c r="I66" s="6">
-        <v>-13.945041</v>
+        <v>-12.904062</v>
       </c>
     </row>
     <row r="67" ht="18" spans="1:9">
@@ -4081,19 +4077,19 @@
         <v>350</v>
       </c>
       <c r="E67" s="10">
-        <v>391.843346999999</v>
+        <v>445.715086999998</v>
       </c>
       <c r="F67" s="11">
-        <v>0.446024962848128</v>
+        <v>0.411215548010396</v>
       </c>
       <c r="G67" s="11">
-        <v>1.27301131869158</v>
+        <v>1.28048805001967</v>
       </c>
       <c r="H67" s="12">
-        <v>1.11955242</v>
+        <v>1.27347167714285</v>
       </c>
       <c r="I67" s="10">
-        <v>41.8433469999985</v>
+        <v>95.715086999998</v>
       </c>
     </row>
     <row r="68" ht="17.25" spans="1:9">
@@ -4107,22 +4103,22 @@
         <v>13</v>
       </c>
       <c r="D68" s="13">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="E68" s="15">
-        <v>342.780069999999</v>
+        <v>401.96607</v>
       </c>
       <c r="F68" s="16">
-        <v>0.992469909150469</v>
+        <v>-0.00976253564521545</v>
       </c>
       <c r="G68" s="16">
-        <v>1.11361571473075</v>
+        <v>0.939955253699788</v>
       </c>
       <c r="H68" s="16">
-        <v>0.979371628571425</v>
+        <v>0.934804813953488</v>
       </c>
       <c r="I68" s="15">
-        <v>-7.21993000000128</v>
+        <v>-28.0339300000003</v>
       </c>
     </row>
     <row r="69" ht="17.25" spans="1:9">
@@ -4132,22 +4128,22 @@
         <v>27</v>
       </c>
       <c r="D69" s="13">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="E69" s="15">
-        <v>47.9303250000001</v>
+        <v>35.227965</v>
       </c>
       <c r="F69" s="16">
-        <v>-0.537699256008532</v>
+        <v>0.0412112335891506</v>
       </c>
       <c r="G69" s="16">
-        <v>0.454168448208723</v>
-      </c>
-      <c r="H69" s="16">
-        <v>0.399419375000001</v>
+        <v>1.01205881345927</v>
+      </c>
+      <c r="H69" s="17">
+        <v>1.00651328571429</v>
       </c>
       <c r="I69" s="15">
-        <v>-72.0696749999999</v>
+        <v>0.227965000000005</v>
       </c>
     </row>
     <row r="70" ht="18" spans="1:9">
@@ -4157,22 +4153,22 @@
         <v>16</v>
       </c>
       <c r="D70" s="18">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E70" s="19">
-        <v>390.710394999998</v>
+        <v>437.194034999999</v>
       </c>
       <c r="F70" s="20">
-        <v>0.417077748823661</v>
+        <v>-0.00584081040724471</v>
       </c>
       <c r="G70" s="20">
-        <v>0.94524619987406</v>
+        <v>0.945382403359102</v>
       </c>
       <c r="H70" s="20">
-        <v>0.831298712765954</v>
+        <v>0.94020222580645</v>
       </c>
       <c r="I70" s="19">
-        <v>-79.2896050000016</v>
+        <v>-27.8059650000008</v>
       </c>
     </row>
     <row r="71" ht="17.25" spans="1:9">
@@ -4186,22 +4182,22 @@
         <v>13</v>
       </c>
       <c r="D71" s="4">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="E71" s="6">
-        <v>346.989709</v>
+        <v>383.116520999998</v>
       </c>
       <c r="F71" s="7">
-        <v>-0.0497178356042639</v>
+        <v>1.04171987513079</v>
       </c>
       <c r="G71" s="7">
-        <v>0.917563165869738</v>
-      </c>
-      <c r="H71" s="7">
-        <v>0.806952811627906</v>
+        <v>1.10064958807556</v>
+      </c>
+      <c r="H71" s="8">
+        <v>1.09461863142857</v>
       </c>
       <c r="I71" s="6">
-        <v>-83.0102910000003</v>
+        <v>33.1165209999983</v>
       </c>
     </row>
     <row r="72" ht="17.25" spans="1:9">
@@ -4211,22 +4207,22 @@
         <v>27</v>
       </c>
       <c r="D72" s="4">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="E72" s="6">
-        <v>27.939496</v>
+        <v>48.4820910000001</v>
       </c>
       <c r="F72" s="7">
-        <v>-0.104532120329593</v>
+        <v>-0.582751905662759</v>
       </c>
       <c r="G72" s="7">
-        <v>0.907691681352915</v>
+        <v>0.406243416322315</v>
       </c>
       <c r="H72" s="7">
-        <v>0.798271314285714</v>
+        <v>0.404017425000001</v>
       </c>
       <c r="I72" s="6">
-        <v>-7.060504</v>
+        <v>-71.5179089999999</v>
       </c>
     </row>
     <row r="73" ht="18" spans="1:9">
@@ -4236,22 +4232,22 @@
         <v>16</v>
       </c>
       <c r="D73" s="9">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="E73" s="10">
-        <v>374.929204999999</v>
+        <v>431.598611999998</v>
       </c>
       <c r="F73" s="11">
-        <v>-0.0540329176705027</v>
+        <v>0.420485063309618</v>
       </c>
       <c r="G73" s="11">
-        <v>0.916820150906105</v>
+        <v>0.923354395287493</v>
       </c>
       <c r="H73" s="11">
-        <v>0.806299365591396</v>
+        <v>0.918294919148932</v>
       </c>
       <c r="I73" s="10">
-        <v>-90.0707950000007</v>
+        <v>-38.4013880000022</v>
       </c>
     </row>
     <row r="74" ht="17.25" spans="1:9">
@@ -4268,19 +4264,19 @@
         <v>400</v>
       </c>
       <c r="E74" s="15">
-        <v>320.103061999999</v>
+        <v>369.430254999999</v>
       </c>
       <c r="F74" s="16">
-        <v>0.0291601392838687</v>
+        <v>0.0421872997703998</v>
       </c>
       <c r="G74" s="16">
-        <v>0.909950293068534</v>
+        <v>0.928664208505508</v>
       </c>
       <c r="H74" s="16">
-        <v>0.800257654999998</v>
+        <v>0.923575637499999</v>
       </c>
       <c r="I74" s="15">
-        <v>-79.8969380000007</v>
+        <v>-30.5697450000006</v>
       </c>
     </row>
     <row r="75" ht="17.25" spans="1:9">
@@ -4293,19 +4289,19 @@
         <v>30</v>
       </c>
       <c r="E75" s="15">
-        <v>3.681651</v>
+        <v>4.168315</v>
       </c>
       <c r="F75" s="16">
-        <v>0.0856237930431514</v>
+        <v>0.1656257550268</v>
       </c>
       <c r="G75" s="16">
-        <v>0.139543366043614</v>
+        <v>0.1397093640955</v>
       </c>
       <c r="H75" s="16">
-        <v>0.1227217</v>
+        <v>0.138943833333333</v>
       </c>
       <c r="I75" s="15">
-        <v>-26.318349</v>
+        <v>-25.831685</v>
       </c>
     </row>
     <row r="76" ht="18" spans="1:9">
@@ -4318,19 +4314,19 @@
         <v>430</v>
       </c>
       <c r="E76" s="19">
-        <v>323.784712999999</v>
+        <v>373.598569999999</v>
       </c>
       <c r="F76" s="20">
-        <v>0.0297691371537698</v>
+        <v>0.0434201374048246</v>
       </c>
       <c r="G76" s="20">
-        <v>0.856200972578423</v>
+        <v>0.8736208472676</v>
       </c>
       <c r="H76" s="20">
-        <v>0.752987704651161</v>
+        <v>0.868833883720929</v>
       </c>
       <c r="I76" s="19">
-        <v>-106.215287000001</v>
+        <v>-56.4014300000007</v>
       </c>
     </row>
     <row r="77" ht="17.25" spans="1:9">
@@ -4347,19 +4343,19 @@
         <v>330</v>
       </c>
       <c r="E77" s="6">
-        <v>301.185759</v>
+        <v>349.523507</v>
       </c>
       <c r="F77" s="7">
-        <v>-0.014243748371764</v>
+        <v>-0.0396220511060742</v>
       </c>
       <c r="G77" s="7">
-        <v>1.03778723718493</v>
-      </c>
-      <c r="H77" s="7">
-        <v>0.912684118181818</v>
+        <v>1.06499774651473</v>
+      </c>
+      <c r="H77" s="8">
+        <v>1.05916214242424</v>
       </c>
       <c r="I77" s="6">
-        <v>-28.8142410000001</v>
+        <v>19.5235069999999</v>
       </c>
     </row>
     <row r="78" ht="17.25" spans="1:9">
@@ -4372,19 +4368,19 @@
         <v>20</v>
       </c>
       <c r="E78" s="6">
-        <v>5.30586099999999</v>
+        <v>5.97660899999999</v>
       </c>
       <c r="F78" s="7">
-        <v>-0.422791311182488</v>
+        <v>-0.362705092401545</v>
       </c>
       <c r="G78" s="7">
-        <v>0.301657206386292</v>
+        <v>0.30047689876033</v>
       </c>
       <c r="H78" s="7">
-        <v>0.26529305</v>
+        <v>0.29883045</v>
       </c>
       <c r="I78" s="6">
-        <v>-14.694139</v>
+        <v>-14.023391</v>
       </c>
     </row>
     <row r="79" ht="18" spans="1:9">
@@ -4397,19 +4393,19 @@
         <v>350</v>
       </c>
       <c r="E79" s="10">
-        <v>306.49162</v>
+        <v>355.500115999999</v>
       </c>
       <c r="F79" s="11">
-        <v>-0.0261761383772863</v>
+        <v>-0.0477381104831466</v>
       </c>
       <c r="G79" s="11">
-        <v>0.995722663996438</v>
-      </c>
-      <c r="H79" s="11">
-        <v>0.875690342857141</v>
+        <v>1.02131084092877</v>
+      </c>
+      <c r="H79" s="12">
+        <v>1.01571461714286</v>
       </c>
       <c r="I79" s="10">
-        <v>-43.5083800000005</v>
+        <v>5.50011599999948</v>
       </c>
     </row>
     <row r="80" ht="17.25" spans="1:9">
@@ -4423,22 +4419,22 @@
         <v>13</v>
       </c>
       <c r="D80" s="13">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="E80" s="15">
-        <v>273.386959999999</v>
+        <v>314.766131</v>
       </c>
       <c r="F80" s="16">
-        <v>0.201420155147388</v>
+        <v>0.183582786395388</v>
       </c>
       <c r="G80" s="16">
-        <v>1.19561754612988</v>
-      </c>
-      <c r="H80" s="17">
-        <v>1.0514883076923</v>
+        <v>0.904286799016135</v>
+      </c>
+      <c r="H80" s="16">
+        <v>0.899331802857143</v>
       </c>
       <c r="I80" s="15">
-        <v>13.3869599999989</v>
+        <v>-35.233869</v>
       </c>
     </row>
     <row r="81" ht="17.25" spans="1:9">
@@ -4448,22 +4444,22 @@
         <v>27</v>
       </c>
       <c r="D81" s="13">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E81" s="15">
-        <v>12.27991</v>
+        <v>19.513807</v>
       </c>
       <c r="F81" s="16">
-        <v>6.82325307007596</v>
+        <v>0.890031963493757</v>
       </c>
       <c r="G81" s="16">
-        <v>0.465437917964693</v>
+        <v>0.392426421763085</v>
       </c>
       <c r="H81" s="16">
-        <v>0.409330333333333</v>
+        <v>0.39027614</v>
       </c>
       <c r="I81" s="15">
-        <v>-17.72009</v>
+        <v>-30.486193</v>
       </c>
     </row>
     <row r="82" ht="18" spans="1:9">
@@ -4473,22 +4469,22 @@
         <v>16</v>
       </c>
       <c r="D82" s="18">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="E82" s="19">
-        <v>285.666869999999</v>
+        <v>334.279938</v>
       </c>
       <c r="F82" s="20">
-        <v>0.24678481412289</v>
+        <v>0.209983950516237</v>
       </c>
       <c r="G82" s="20">
-        <v>1.12008172252658</v>
+        <v>0.840304251859504</v>
       </c>
       <c r="H82" s="20">
-        <v>0.98505817241379</v>
+        <v>0.835699845</v>
       </c>
       <c r="I82" s="19">
-        <v>-4.33313000000089</v>
+        <v>-65.720062</v>
       </c>
     </row>
     <row r="83" ht="17.25" spans="1:9">
@@ -4502,22 +4498,22 @@
         <v>13</v>
       </c>
       <c r="D83" s="4">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="E83" s="6">
-        <v>261.219727</v>
+        <v>311.850691999999</v>
       </c>
       <c r="F83" s="7">
-        <v>0.130682803229376</v>
+        <v>0.277808282528801</v>
       </c>
       <c r="G83" s="7">
-        <v>0.848644417935024</v>
-      </c>
-      <c r="H83" s="7">
-        <v>0.746342077142857</v>
+        <v>1.20603414473405</v>
+      </c>
+      <c r="H83" s="8">
+        <v>1.19942573846153</v>
       </c>
       <c r="I83" s="6">
-        <v>-88.780273</v>
+        <v>51.8506919999987</v>
       </c>
     </row>
     <row r="84" ht="17.25" spans="1:9">
@@ -4527,22 +4523,22 @@
         <v>27</v>
       </c>
       <c r="D84" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E84" s="6">
-        <v>14.645675</v>
+        <v>14.111649</v>
       </c>
       <c r="F84" s="7">
-        <v>1.31702624929737</v>
+        <v>5.65735516401315</v>
       </c>
       <c r="G84" s="7">
-        <v>0.333063637071651</v>
+        <v>0.472979971074379</v>
       </c>
       <c r="H84" s="7">
-        <v>0.2929135</v>
+        <v>0.470388299999999</v>
       </c>
       <c r="I84" s="6">
-        <v>-35.354325</v>
+        <v>-15.888351</v>
       </c>
     </row>
     <row r="85" ht="18" spans="1:9">
@@ -4552,22 +4548,22 @@
         <v>16</v>
       </c>
       <c r="D85" s="9">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="E85" s="10">
-        <v>275.865402</v>
+        <v>325.962340999999</v>
       </c>
       <c r="F85" s="11">
-        <v>0.16227654853549</v>
+        <v>0.324130030861276</v>
       </c>
       <c r="G85" s="11">
-        <v>0.784196820327103</v>
-      </c>
-      <c r="H85" s="11">
-        <v>0.689663505</v>
+        <v>1.13020095435546</v>
+      </c>
+      <c r="H85" s="12">
+        <v>1.12400807241379</v>
       </c>
       <c r="I85" s="10">
-        <v>-124.134598</v>
+        <v>35.9623409999988</v>
       </c>
     </row>
     <row r="86" ht="17.25" spans="1:9">
@@ -4584,19 +4580,19 @@
         <v>350</v>
       </c>
       <c r="E86" s="15">
-        <v>242.663833</v>
+        <v>294.194661</v>
       </c>
       <c r="F86" s="16">
-        <v>-0.124294854857033</v>
+        <v>-0.0915113816204104</v>
       </c>
       <c r="G86" s="16">
-        <v>0.788360472140632</v>
+        <v>0.845187337780401</v>
       </c>
       <c r="H86" s="16">
-        <v>0.693325237142857</v>
+        <v>0.840556174285714</v>
       </c>
       <c r="I86" s="15">
-        <v>-107.336167</v>
+        <v>-55.8053390000002</v>
       </c>
     </row>
     <row r="87" ht="17.25" spans="1:9">
@@ -4609,19 +4605,19 @@
         <v>5</v>
       </c>
       <c r="E87" s="15">
-        <v>5.41883</v>
+        <v>5.96931099999999</v>
       </c>
       <c r="F87" s="16">
-        <v>4.52839730621181</v>
+        <v>2.52819721411654</v>
       </c>
       <c r="G87" s="16">
-        <v>1.23231959501558</v>
+        <v>1.20043995316804</v>
       </c>
       <c r="H87" s="17">
-        <v>1.083766</v>
+        <v>1.1938622</v>
       </c>
       <c r="I87" s="15">
-        <v>0.418829999999996</v>
+        <v>0.969310999999995</v>
       </c>
     </row>
     <row r="88" ht="18" spans="1:9">
@@ -4634,19 +4630,19 @@
         <v>355</v>
       </c>
       <c r="E88" s="19">
-        <v>248.082663</v>
+        <v>300.163972</v>
       </c>
       <c r="F88" s="20">
-        <v>-0.107895378812816</v>
+        <v>-0.0778954952451738</v>
       </c>
       <c r="G88" s="20">
-        <v>0.794613417533237</v>
+        <v>0.850190895743608</v>
       </c>
       <c r="H88" s="20">
-        <v>0.698824402816902</v>
+        <v>0.845532315492958</v>
       </c>
       <c r="I88" s="19">
-        <v>-106.917337</v>
+        <v>-54.8360280000001</v>
       </c>
     </row>
     <row r="89" ht="17.25" spans="1:9">
@@ -4663,19 +4659,19 @@
         <v>220</v>
       </c>
       <c r="E89" s="6">
-        <v>195.742228999999</v>
+        <v>218.429115999999</v>
       </c>
       <c r="F89" s="7">
-        <v>0.159800553549305</v>
+        <v>0.0865685982513407</v>
       </c>
       <c r="G89" s="7">
-        <v>1.01169517962333</v>
+        <v>0.998329919108435</v>
       </c>
       <c r="H89" s="7">
-        <v>0.889737404545451</v>
+        <v>0.992859618181813</v>
       </c>
       <c r="I89" s="6">
-        <v>-24.2577710000008</v>
+        <v>-1.57088400000106</v>
       </c>
     </row>
     <row r="90" ht="17.25" spans="1:9">
@@ -4688,19 +4684,19 @@
         <v>35</v>
       </c>
       <c r="E90" s="6">
-        <v>25.614184</v>
+        <v>27.960663</v>
       </c>
       <c r="F90" s="7">
-        <v>0.00449182741531629</v>
+        <v>-0.000312269871245219</v>
       </c>
       <c r="G90" s="7">
-        <v>0.832147499777481</v>
+        <v>0.803277606847699</v>
       </c>
       <c r="H90" s="7">
-        <v>0.731833828571429</v>
+        <v>0.798876085714287</v>
       </c>
       <c r="I90" s="6">
-        <v>-9.38581599999998</v>
+        <v>-7.03933699999997</v>
       </c>
     </row>
     <row r="91" ht="18" spans="1:9">
@@ -4713,19 +4709,19 @@
         <v>255</v>
       </c>
       <c r="E91" s="10">
-        <v>221.356412999999</v>
+        <v>246.389778999999</v>
       </c>
       <c r="F91" s="11">
-        <v>0.139415124970966</v>
+        <v>0.0759570318647749</v>
       </c>
       <c r="G91" s="11">
-        <v>0.987051380428804</v>
+        <v>0.971558033111863</v>
       </c>
       <c r="H91" s="11">
-        <v>0.86806436470588</v>
+        <v>0.966234427450976</v>
       </c>
       <c r="I91" s="10">
-        <v>-33.6435870000007</v>
+        <v>-8.61022100000108</v>
       </c>
     </row>
     <row r="92" ht="17.25" spans="1:9">
@@ -4739,22 +4735,22 @@
         <v>13</v>
       </c>
       <c r="D92" s="13">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="E92" s="15">
-        <v>152.864565</v>
+        <v>168.147083</v>
       </c>
       <c r="F92" s="16">
-        <v>0.122058916771742</v>
+        <v>0.213756762173502</v>
       </c>
       <c r="G92" s="16">
-        <v>0.755730275294595</v>
-      </c>
-      <c r="H92" s="16">
-        <v>0.66462854347826</v>
+        <v>1.05670945755854</v>
+      </c>
+      <c r="H92" s="17">
+        <v>1.05091926875</v>
       </c>
       <c r="I92" s="15">
-        <v>-77.1354350000002</v>
+        <v>8.14708299999981</v>
       </c>
     </row>
     <row r="93" ht="17.25" spans="1:9">
@@ -4764,22 +4760,22 @@
         <v>27</v>
       </c>
       <c r="D93" s="13">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E93" s="15">
-        <v>47.7879790000001</v>
+        <v>51.9786960000001</v>
       </c>
       <c r="F93" s="16">
-        <v>2.5472256352857</v>
+        <v>0.242708729260435</v>
       </c>
       <c r="G93" s="16">
-        <v>1.81127853946002</v>
+        <v>1.0453016</v>
       </c>
       <c r="H93" s="17">
-        <v>1.59293263333334</v>
+        <v>1.03957392</v>
       </c>
       <c r="I93" s="15">
-        <v>17.7879790000001</v>
+        <v>1.97869600000006</v>
       </c>
     </row>
     <row r="94" ht="18" spans="1:9">
@@ -4789,22 +4785,22 @@
         <v>16</v>
       </c>
       <c r="D94" s="18">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="E94" s="19">
-        <v>200.652544</v>
+        <v>220.125779</v>
       </c>
       <c r="F94" s="20">
-        <v>0.340295370902922</v>
+        <v>0.220470905881283</v>
       </c>
       <c r="G94" s="20">
-        <v>0.877524305775222</v>
-      </c>
-      <c r="H94" s="20">
-        <v>0.771740553846154</v>
+        <v>1.05399330099698</v>
+      </c>
+      <c r="H94" s="21">
+        <v>1.0482179952381</v>
       </c>
       <c r="I94" s="19">
-        <v>-59.347456</v>
+        <v>10.125779</v>
       </c>
     </row>
     <row r="95" ht="17.25" spans="1:9">
@@ -4818,22 +4814,22 @@
         <v>13</v>
       </c>
       <c r="D95" s="4">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="E95" s="6">
-        <v>142.365513</v>
+        <v>175.913017</v>
       </c>
       <c r="F95" s="7">
-        <v>0.167397067913229</v>
+        <v>0.0960674117188631</v>
       </c>
       <c r="G95" s="7">
-        <v>1.01174868078271</v>
+        <v>0.769053194454425</v>
       </c>
       <c r="H95" s="7">
-        <v>0.889784456249999</v>
+        <v>0.764839204347825</v>
       </c>
       <c r="I95" s="6">
-        <v>-17.6344870000002</v>
+        <v>-54.0869830000002</v>
       </c>
     </row>
     <row r="96" ht="17.25" spans="1:9">
@@ -4843,22 +4839,22 @@
         <v>27</v>
       </c>
       <c r="D96" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E96" s="6">
-        <v>51.380866</v>
+        <v>37.9688140000001</v>
       </c>
       <c r="F96" s="7">
-        <v>0.25122057090786</v>
+        <v>1.3535703730225</v>
       </c>
       <c r="G96" s="7">
-        <v>1.16847452274143</v>
+        <v>1.27260028558311</v>
       </c>
       <c r="H96" s="8">
-        <v>1.02761732</v>
+        <v>1.26562713333334</v>
       </c>
       <c r="I96" s="6">
-        <v>1.38086600000003</v>
+        <v>7.96881400000009</v>
       </c>
     </row>
     <row r="97" ht="18" spans="1:9">
@@ -4868,22 +4864,22 @@
         <v>16</v>
       </c>
       <c r="D97" s="9">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="E97" s="10">
-        <v>193.746379</v>
+        <v>213.881831</v>
       </c>
       <c r="F97" s="11">
-        <v>0.188512675048262</v>
+        <v>0.210922814137432</v>
       </c>
       <c r="G97" s="11">
-        <v>1.04906435743955</v>
+        <v>0.827154781892351</v>
       </c>
       <c r="H97" s="11">
-        <v>0.922601804761905</v>
+        <v>0.822622426923078</v>
       </c>
       <c r="I97" s="10">
-        <v>-16.253621</v>
+        <v>-46.1181689999998</v>
       </c>
     </row>
     <row r="98" ht="17.25" spans="1:9">
@@ -4900,19 +4896,19 @@
         <v>750</v>
       </c>
       <c r="E98" s="15">
-        <v>1249.364138</v>
+        <v>1422.49274600001</v>
       </c>
       <c r="F98" s="16">
-        <v>0.468025134073119</v>
+        <v>0.409554785148933</v>
       </c>
       <c r="G98" s="16">
-        <v>1.89415539094497</v>
+        <v>1.90710689546374</v>
       </c>
       <c r="H98" s="17">
-        <v>1.66581885066667</v>
+        <v>1.89665699466667</v>
       </c>
       <c r="I98" s="15">
-        <v>499.364138000003</v>
+        <v>672.492746000006</v>
       </c>
     </row>
     <row r="99" ht="17.25" spans="1:9">
@@ -4925,19 +4921,19 @@
         <v>200</v>
       </c>
       <c r="E99" s="15">
-        <v>369.316562</v>
+        <v>379.285913</v>
       </c>
       <c r="F99" s="16">
-        <v>0.0428002561384333</v>
+        <v>0.0144100738272177</v>
       </c>
       <c r="G99" s="16">
-        <v>2.09969696464174</v>
+        <v>1.90687821274105</v>
       </c>
       <c r="H99" s="17">
-        <v>1.84658281</v>
+        <v>1.896429565</v>
       </c>
       <c r="I99" s="15">
-        <v>169.316562</v>
+        <v>179.285913</v>
       </c>
     </row>
     <row r="100" ht="18" spans="1:9">
@@ -4950,19 +4946,19 @@
         <v>950</v>
       </c>
       <c r="E100" s="19">
-        <v>1618.68070000001</v>
+        <v>1801.77865900001</v>
       </c>
       <c r="F100" s="20">
-        <v>0.343070085531679</v>
+        <v>0.302732209430821</v>
       </c>
       <c r="G100" s="20">
-        <v>1.93742730119692</v>
+        <v>1.90705875173265</v>
       </c>
       <c r="H100" s="21">
-        <v>1.70387442105264</v>
+        <v>1.89660911473685</v>
       </c>
       <c r="I100" s="19">
-        <v>668.680700000006</v>
+        <v>851.778659000011</v>
       </c>
     </row>
     <row r="101" ht="17.25" spans="1:9">
@@ -4979,19 +4975,19 @@
         <v>50</v>
       </c>
       <c r="E101" s="6">
-        <v>130.368298</v>
+        <v>135.428884</v>
       </c>
       <c r="F101" s="7">
-        <v>-0.138663649829253</v>
+        <v>-0.293179974479114</v>
       </c>
       <c r="G101" s="7">
-        <v>2.96476191713395</v>
+        <v>2.72350097300275</v>
       </c>
       <c r="H101" s="8">
-        <v>2.60736596</v>
+        <v>2.70857768</v>
       </c>
       <c r="I101" s="6">
-        <v>80.3682979999999</v>
+        <v>85.4288839999999</v>
       </c>
     </row>
     <row r="102" ht="17.25" spans="1:9">
@@ -5004,19 +5000,19 @@
         <v>610</v>
       </c>
       <c r="E102" s="6">
-        <v>763.299689</v>
+        <v>818.267552</v>
       </c>
       <c r="F102" s="7">
-        <v>4.26043276804782</v>
+        <v>2.16474378780019</v>
       </c>
       <c r="G102" s="7">
-        <v>1.42283022565242</v>
+        <v>1.34881297240663</v>
       </c>
       <c r="H102" s="8">
-        <v>1.25131096557377</v>
+        <v>1.34142221639344</v>
       </c>
       <c r="I102" s="6">
-        <v>153.299689</v>
+        <v>208.267552</v>
       </c>
     </row>
     <row r="103" ht="18" spans="1:9">
@@ -5029,19 +5025,19 @@
         <v>660</v>
       </c>
       <c r="E103" s="10">
-        <v>893.667987</v>
+        <v>953.696436000001</v>
       </c>
       <c r="F103" s="11">
-        <v>2.01448507411123</v>
+        <v>1.11857050545909</v>
       </c>
       <c r="G103" s="11">
-        <v>1.53964323258284</v>
+        <v>1.45295600275482</v>
       </c>
       <c r="H103" s="12">
-        <v>1.35404240454545</v>
+        <v>1.4449946</v>
       </c>
       <c r="I103" s="10">
-        <v>233.667987</v>
+        <v>293.696436000001</v>
       </c>
     </row>
     <row r="104" ht="17.25" spans="1:9">
@@ -5058,19 +5054,19 @@
         <v>350</v>
       </c>
       <c r="E104" s="15">
-        <v>520.105759999997</v>
+        <v>587.322696999997</v>
       </c>
       <c r="F104" s="16">
-        <v>0.853772045733659</v>
+        <v>0.623334645116511</v>
       </c>
       <c r="G104" s="16">
-        <v>1.68970718647084</v>
+        <v>1.68731038492719</v>
       </c>
       <c r="H104" s="17">
-        <v>1.48601645714285</v>
+        <v>1.67806484857142</v>
       </c>
       <c r="I104" s="15">
-        <v>170.105759999997</v>
+        <v>237.322696999997</v>
       </c>
     </row>
     <row r="105" ht="17.25" spans="1:9">
@@ -5083,19 +5079,19 @@
         <v>180</v>
       </c>
       <c r="E105" s="15">
-        <v>224.955439</v>
+        <v>260.36586</v>
       </c>
       <c r="F105" s="16">
-        <v>0.766855951964547</v>
+        <v>0.989836426150183</v>
       </c>
       <c r="G105" s="16">
-        <v>1.42105806914157</v>
+        <v>1.45444657024793</v>
       </c>
       <c r="H105" s="17">
-        <v>1.24975243888889</v>
+        <v>1.446477</v>
       </c>
       <c r="I105" s="15">
-        <v>44.955439</v>
+        <v>80.3658599999999</v>
       </c>
     </row>
     <row r="106" ht="18" spans="1:9">
@@ -5108,19 +5104,19 @@
         <v>530</v>
       </c>
       <c r="E106" s="19">
-        <v>745.061198999996</v>
+        <v>847.688556999996</v>
       </c>
       <c r="F106" s="20">
-        <v>0.826641598637982</v>
+        <v>0.720677934822785</v>
       </c>
       <c r="G106" s="20">
-        <v>1.59846786360429</v>
+        <v>1.60822456107385</v>
       </c>
       <c r="H106" s="21">
-        <v>1.4057758471698</v>
+        <v>1.59941237169811</v>
       </c>
       <c r="I106" s="19">
-        <v>215.061198999996</v>
+        <v>317.688556999996</v>
       </c>
     </row>
     <row r="107" ht="17.25" spans="1:9">
@@ -5137,19 +5133,19 @@
         <v>400</v>
       </c>
       <c r="E107" s="6">
-        <v>451.376786999998</v>
+        <v>497.167805999997</v>
       </c>
       <c r="F107" s="7">
-        <v>0.30484977968253</v>
+        <v>0.284244648856054</v>
       </c>
       <c r="G107" s="7">
-        <v>1.28311937114486</v>
+        <v>1.24976755640495</v>
       </c>
       <c r="H107" s="8">
-        <v>1.1284419675</v>
+        <v>1.24291951499999</v>
       </c>
       <c r="I107" s="6">
-        <v>51.3767869999983</v>
+        <v>97.1678059999974</v>
       </c>
     </row>
     <row r="108" ht="17.25" spans="1:9">
@@ -5162,19 +5158,19 @@
         <v>45</v>
       </c>
       <c r="E108" s="6">
-        <v>69.0234989999998</v>
+        <v>85.8954649999998</v>
       </c>
       <c r="F108" s="7">
-        <v>2.08331400589829</v>
+        <v>2.67091093100712</v>
       </c>
       <c r="G108" s="7">
-        <v>1.74410364382139</v>
+        <v>1.9193048500153</v>
       </c>
       <c r="H108" s="8">
-        <v>1.53385553333333</v>
+        <v>1.90878811111111</v>
       </c>
       <c r="I108" s="6">
-        <v>24.0234989999998</v>
+        <v>40.8954649999998</v>
       </c>
     </row>
     <row r="109" ht="18" spans="1:9">
@@ -5187,19 +5183,19 @@
         <v>445</v>
       </c>
       <c r="E109" s="10">
-        <v>520.400285999997</v>
+        <v>583.063270999996</v>
       </c>
       <c r="F109" s="11">
-        <v>0.412946506224914</v>
+        <v>0.420278126049173</v>
       </c>
       <c r="G109" s="11">
-        <v>1.32973575826944</v>
+        <v>1.31747357485993</v>
       </c>
       <c r="H109" s="12">
-        <v>1.16943884494381</v>
+        <v>1.31025454157302</v>
       </c>
       <c r="I109" s="10">
-        <v>75.400285999997</v>
+        <v>138.063270999996</v>
       </c>
     </row>
     <row r="110" ht="17.25" spans="1:9">
@@ -5213,22 +5209,22 @@
         <v>13</v>
       </c>
       <c r="D110" s="13">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="E110" s="15">
-        <v>383.397825</v>
+        <v>529.43403</v>
       </c>
       <c r="F110" s="16">
-        <v>3.76703525690182</v>
+        <v>0.276201007782058</v>
       </c>
       <c r="G110" s="16">
-        <v>4.35950797897196</v>
+        <v>1.90125364964581</v>
       </c>
       <c r="H110" s="17">
-        <v>3.83397825</v>
+        <v>1.89083582142857</v>
       </c>
       <c r="I110" s="15">
-        <v>283.397825</v>
+        <v>249.43403</v>
       </c>
     </row>
     <row r="111" ht="17.25" spans="1:9">
@@ -5238,22 +5234,22 @@
         <v>27</v>
       </c>
       <c r="D111" s="13">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E111" s="15">
-        <v>79.543113</v>
+        <v>23.5962179999999</v>
       </c>
       <c r="F111" s="16">
-        <v>0.32319000006937</v>
+        <v>0.346548400223857</v>
       </c>
       <c r="G111" s="16">
-        <v>1.5074369805296</v>
+        <v>1.18631123553719</v>
       </c>
       <c r="H111" s="17">
-        <v>1.32571855</v>
+        <v>1.1798109</v>
       </c>
       <c r="I111" s="15">
-        <v>19.543113</v>
+        <v>3.59621799999994</v>
       </c>
     </row>
     <row r="112" ht="18" spans="1:9">
@@ -5263,22 +5259,22 @@
         <v>16</v>
       </c>
       <c r="D112" s="18">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="E112" s="19">
-        <v>462.940937999999</v>
+        <v>553.030247999998</v>
       </c>
       <c r="F112" s="20">
-        <v>2.29397921531361</v>
+        <v>0.279052077105927</v>
       </c>
       <c r="G112" s="20">
-        <v>3.28998135455607</v>
+        <v>1.85359082203856</v>
       </c>
       <c r="H112" s="21">
-        <v>2.8933808625</v>
+        <v>1.84343415999999</v>
       </c>
       <c r="I112" s="19">
-        <v>302.940937999999</v>
+        <v>253.030247999998</v>
       </c>
     </row>
     <row r="113" ht="17.25" spans="1:9">
@@ -5292,22 +5288,22 @@
         <v>13</v>
       </c>
       <c r="D113" s="4">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="E113" s="6">
-        <v>439.327927999999</v>
+        <v>450.548135</v>
       </c>
       <c r="F113" s="7">
-        <v>0.153631680143651</v>
+        <v>3.9965305824425</v>
       </c>
       <c r="G113" s="7">
-        <v>1.78409761593235</v>
+        <v>4.53030493870523</v>
       </c>
       <c r="H113" s="8">
-        <v>1.56902831428571</v>
+        <v>4.50548135</v>
       </c>
       <c r="I113" s="6">
-        <v>159.327927999999</v>
+        <v>350.548135</v>
       </c>
     </row>
     <row r="114" ht="17.25" spans="1:9">
@@ -5317,22 +5313,22 @@
         <v>27</v>
       </c>
       <c r="D114" s="4">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E114" s="6">
-        <v>22.141164</v>
+        <v>79.661113</v>
       </c>
       <c r="F114" s="7">
-        <v>0.355422663642611</v>
+        <v>0.324582008014659</v>
       </c>
       <c r="G114" s="7">
-        <v>1.2588044953271</v>
+        <v>1.33500028673095</v>
       </c>
       <c r="H114" s="8">
-        <v>1.1070582</v>
+        <v>1.32768521666667</v>
       </c>
       <c r="I114" s="6">
-        <v>2.14116399999995</v>
+        <v>19.661113</v>
       </c>
     </row>
     <row r="115" ht="18" spans="1:9">
@@ -5342,22 +5338,22 @@
         <v>16</v>
       </c>
       <c r="D115" s="9">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="E115" s="10">
-        <v>461.469091999999</v>
+        <v>530.209248</v>
       </c>
       <c r="F115" s="11">
-        <v>0.161931436548811</v>
+        <v>2.5273734406705</v>
       </c>
       <c r="G115" s="11">
-        <v>1.74907807455866</v>
+        <v>3.33206569421487</v>
       </c>
       <c r="H115" s="12">
-        <v>1.53823030666666</v>
+        <v>3.3138078</v>
       </c>
       <c r="I115" s="10">
-        <v>161.469091999999</v>
+        <v>370.209248</v>
       </c>
     </row>
     <row r="116" ht="17.25" spans="1:9">
@@ -5374,19 +5370,19 @@
         <v>390</v>
       </c>
       <c r="E116" s="15">
-        <v>331.377842</v>
+        <v>405.561606</v>
       </c>
       <c r="F116" s="16">
-        <v>-0.0807674674625395</v>
+        <v>0.0313667533102699</v>
       </c>
       <c r="G116" s="16">
-        <v>0.966154743429985</v>
-      </c>
-      <c r="H116" s="16">
-        <v>0.849686774358974</v>
+        <v>1.04563103899131</v>
+      </c>
+      <c r="H116" s="17">
+        <v>1.03990155384615</v>
       </c>
       <c r="I116" s="15">
-        <v>-58.6221580000003</v>
+        <v>15.5616059999995</v>
       </c>
     </row>
     <row r="117" ht="17.25" spans="1:9">
@@ -5399,19 +5395,19 @@
         <v>110</v>
       </c>
       <c r="E117" s="15">
-        <v>86.106361</v>
+        <v>88.595843</v>
       </c>
       <c r="F117" s="16">
-        <v>-0.345188463006136</v>
+        <v>-0.339715191043221</v>
       </c>
       <c r="G117" s="16">
-        <v>0.890082746105919</v>
+        <v>0.809854312421738</v>
       </c>
       <c r="H117" s="16">
-        <v>0.7827851</v>
+        <v>0.805416754545455</v>
       </c>
       <c r="I117" s="15">
-        <v>-23.893639</v>
+        <v>-21.404157</v>
       </c>
     </row>
     <row r="118" ht="18" spans="1:9">
@@ -5424,19 +5420,19 @@
         <v>500</v>
       </c>
       <c r="E118" s="19">
-        <v>417.484203</v>
+        <v>494.157449</v>
       </c>
       <c r="F118" s="20">
-        <v>-0.151441006980192</v>
+        <v>-0.0630408896045666</v>
       </c>
       <c r="G118" s="20">
-        <v>0.949418904018691</v>
+        <v>0.993760159146005</v>
       </c>
       <c r="H118" s="20">
-        <v>0.834968406</v>
+        <v>0.988314898</v>
       </c>
       <c r="I118" s="19">
-        <v>-82.5157970000001</v>
+        <v>-5.84255100000019</v>
       </c>
     </row>
     <row r="119" ht="17.25" spans="1:9">
@@ -5453,19 +5449,19 @@
         <v>420</v>
       </c>
       <c r="E119" s="6">
-        <v>182.609121</v>
+        <v>232.781232</v>
       </c>
       <c r="F119" s="7">
-        <v>-0.384058025447015</v>
+        <v>-0.306028881387976</v>
       </c>
       <c r="G119" s="7">
-        <v>0.494380130284824</v>
+        <v>0.557294698150335</v>
       </c>
       <c r="H119" s="7">
-        <v>0.434783621428571</v>
+        <v>0.554241028571429</v>
       </c>
       <c r="I119" s="6">
-        <v>-237.390879</v>
+        <v>-187.218768</v>
       </c>
     </row>
     <row r="120" ht="17.25" spans="1:9">
@@ -5478,19 +5474,19 @@
         <v>30</v>
       </c>
       <c r="E120" s="6">
-        <v>71.774369</v>
+        <v>73.2687659999999</v>
       </c>
       <c r="F120" s="7">
-        <v>16.7104518616927</v>
+        <v>15.1936315322081</v>
       </c>
       <c r="G120" s="7">
-        <v>2.72042000882658</v>
+        <v>2.4557483553719</v>
       </c>
       <c r="H120" s="8">
-        <v>2.39247896666667</v>
+        <v>2.4422922</v>
       </c>
       <c r="I120" s="6">
-        <v>41.774369</v>
+        <v>43.2687659999999</v>
       </c>
     </row>
     <row r="121" ht="18" spans="1:9">
@@ -5503,19 +5499,19 @@
         <v>450</v>
       </c>
       <c r="E121" s="10">
-        <v>254.38349</v>
+        <v>306.049997999999</v>
       </c>
       <c r="F121" s="11">
-        <v>-0.153533418255457</v>
+        <v>-0.099742120018163</v>
       </c>
       <c r="G121" s="11">
-        <v>0.642782788854274</v>
+        <v>0.683858275298438</v>
       </c>
       <c r="H121" s="11">
-        <v>0.565296644444444</v>
+        <v>0.680111106666665</v>
       </c>
       <c r="I121" s="10">
-        <v>-195.61651</v>
+        <v>-143.950002000001</v>
       </c>
     </row>
     <row r="122" ht="17.25" spans="1:9">
@@ -5532,19 +5528,19 @@
         <v>400</v>
       </c>
       <c r="E122" s="15">
-        <v>156.198878</v>
+        <v>256.204175</v>
       </c>
       <c r="F122" s="16">
-        <v>-0.722753210535115</v>
+        <v>-0.576146339123587</v>
       </c>
       <c r="G122" s="16">
-        <v>0.444023290264797</v>
+        <v>0.644039420626721</v>
       </c>
       <c r="H122" s="16">
-        <v>0.390497195</v>
+        <v>0.640510437499999</v>
       </c>
       <c r="I122" s="15">
-        <v>-243.801122</v>
+        <v>-143.795825</v>
       </c>
     </row>
     <row r="123" ht="17.25" spans="1:9">
@@ -5557,19 +5553,19 @@
         <v>5</v>
       </c>
       <c r="E123" s="15">
-        <v>17.114274</v>
+        <v>17.902729</v>
       </c>
       <c r="F123" s="16">
-        <v>6.24937817478203</v>
+        <v>4.66662741780132</v>
       </c>
       <c r="G123" s="16">
-        <v>3.89203115887851</v>
+        <v>3.60027332506887</v>
       </c>
       <c r="H123" s="17">
-        <v>3.4228548</v>
+        <v>3.5805458</v>
       </c>
       <c r="I123" s="15">
-        <v>12.114274</v>
+        <v>12.902729</v>
       </c>
     </row>
     <row r="124" ht="18" spans="1:9">
@@ -5582,19 +5578,19 @@
         <v>405</v>
       </c>
       <c r="E124" s="19">
-        <v>173.313152</v>
+        <v>274.106904</v>
       </c>
       <c r="F124" s="20">
-        <v>-0.693659716886947</v>
+        <v>-0.548886616438456</v>
       </c>
       <c r="G124" s="20">
-        <v>0.486591288642744</v>
+        <v>0.680536135496377</v>
       </c>
       <c r="H124" s="20">
-        <v>0.427933708641975</v>
+        <v>0.67680717037037</v>
       </c>
       <c r="I124" s="19">
-        <v>-231.686848</v>
+        <v>-130.893096</v>
       </c>
     </row>
     <row r="125" ht="17.25" spans="1:9">
@@ -5611,19 +5607,19 @@
         <v>17000</v>
       </c>
       <c r="E125" s="6">
-        <v>17726.8493929995</v>
+        <v>20840.0402839995</v>
       </c>
       <c r="F125" s="7">
-        <v>0.228194811678661</v>
+        <v>0.259815772307775</v>
       </c>
       <c r="G125" s="7">
-        <v>1.18568811223104</v>
+        <v>1.23263890838759</v>
       </c>
       <c r="H125" s="8">
-        <v>1.04275584664703</v>
+        <v>1.22588472258821</v>
       </c>
       <c r="I125" s="6">
-        <v>726.849392999487</v>
+        <v>3840.04028399954</v>
       </c>
     </row>
     <row r="126" ht="17.25" spans="1:9">
@@ -5636,19 +5632,19 @@
         <v>3020</v>
       </c>
       <c r="E126" s="6">
-        <v>3633.71405000001</v>
+        <v>3890.31118600015</v>
       </c>
       <c r="F126" s="7">
-        <v>1.01218236289346</v>
+        <v>0.882317967130685</v>
       </c>
       <c r="G126" s="7">
-        <v>1.36814345510718</v>
+        <v>1.29527993622868</v>
       </c>
       <c r="H126" s="8">
-        <v>1.20321657284768</v>
+        <v>1.28818251192058</v>
       </c>
       <c r="I126" s="6">
-        <v>613.714050000005</v>
+        <v>870.311186000154</v>
       </c>
     </row>
     <row r="127" ht="18" spans="1:9">
@@ -5661,19 +5657,19 @@
         <v>20020</v>
       </c>
       <c r="E127" s="10">
-        <v>21360.5634430006</v>
+        <v>24730.351470001</v>
       </c>
       <c r="F127" s="11">
-        <v>0.315377505334853</v>
+        <v>0.328952935101915</v>
       </c>
       <c r="G127" s="11">
-        <v>1.21321134577187</v>
+        <v>1.2420882542458</v>
       </c>
       <c r="H127" s="12">
-        <v>1.06696121093909</v>
+        <v>1.23528229120884</v>
       </c>
       <c r="I127" s="10">
-        <v>1340.56344300064</v>
+        <v>4710.35147000097</v>
       </c>
     </row>
   </sheetData>
